--- a/Data/Entities/OpenNGS/OpenNGS.Item.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE\OpenNGS\ngs-packages\Data\Entities\OpenNGS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE\OpenNGS\openngs-unity\Data\Entities\OpenNGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C10F8C-C6F4-4593-9866-819FD71BCF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9701E8-8DA8-440D-A3AD-D7D5C6B375C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11760" yWindow="1510" windowWidth="22910" windowHeight="16130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="9" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="592">
   <si>
     <t>Package</t>
   </si>
@@ -1838,13 +1838,21 @@
     </r>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1855,18 +1863,21 @@
     <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1875,58 +1886,68 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2119,7 +2140,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -2167,7 +2188,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2924,7 +2945,7 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
+      <numFmt numFmtId="176" formatCode="0_ "/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -3020,1252 +3041,1252 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
     </dxf>
     <dxf>
       <font>
@@ -4517,7 +4538,7 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
+      <numFmt numFmtId="176" formatCode="0_ "/>
     </dxf>
     <dxf>
       <font>
@@ -4664,7 +4685,7 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
+      <numFmt numFmtId="176" formatCode="0_ "/>
     </dxf>
     <dxf>
       <font>
@@ -4868,3013 +4889,3013 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
     </dxf>
     <dxf>
       <font>
@@ -9682,8 +9703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -13797,8 +13818,8 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="D11:D12">
-    <cfRule type="duplicateValues" dxfId="65" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
     <cfRule type="duplicateValues" dxfId="63" priority="42"/>
@@ -13880,8 +13901,8 @@
     <cfRule type="duplicateValues" dxfId="37" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:D78 D84">
-    <cfRule type="duplicateValues" dxfId="36" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81:D83">
     <cfRule type="duplicateValues" dxfId="34" priority="3"/>
@@ -13895,8 +13916,8 @@
     <cfRule type="duplicateValues" dxfId="30" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:D102">
     <cfRule type="duplicateValues" dxfId="27" priority="10"/>
@@ -13969,8 +13990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:G210"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="D169" sqref="D169"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16449,7 +16470,7 @@
     </row>
     <row r="155" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
-        <v>138</v>
+        <v>590</v>
       </c>
       <c r="B155" s="17" t="s">
         <v>140</v>
@@ -16469,7 +16490,7 @@
     </row>
     <row r="156" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
-        <v>42</v>
+        <v>591</v>
       </c>
       <c r="B156" s="17" t="s">
         <v>394</v>

--- a/Data/Entities/OpenNGS/OpenNGS.Item.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="9" r:id="rId1"/>
@@ -347,7 +347,7 @@
     <t>添加道具req</t>
   </si>
   <si>
-    <t>CS;Client</t>
+    <t>CS;</t>
   </si>
   <si>
     <t>AddItemRsp</t>
@@ -1858,7 +1858,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1921,12 +1921,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2542,10 +2536,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2554,31 +2548,34 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2590,101 +2587,98 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2760,16 +2754,13 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
@@ -9639,8 +9630,8 @@
   <sheetPr/>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -9691,22 +9682,22 @@
       <c r="A2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25" t="s">
+      <c r="E2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9714,22 +9705,22 @@
       <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25" t="s">
+      <c r="E3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9737,22 +9728,22 @@
       <c r="A4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25" t="s">
+      <c r="E4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9760,22 +9751,22 @@
       <c r="A5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25" t="s">
+      <c r="E5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9783,22 +9774,22 @@
       <c r="A6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25" t="s">
+      <c r="E6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9806,22 +9797,22 @@
       <c r="A7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25" t="s">
+      <c r="E7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9829,22 +9820,22 @@
       <c r="A8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25" t="s">
+      <c r="E8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9852,22 +9843,22 @@
       <c r="A9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25" t="s">
+      <c r="E9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9875,22 +9866,22 @@
       <c r="A10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25" t="s">
+      <c r="E10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9898,22 +9889,22 @@
       <c r="A11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25" t="s">
+      <c r="E11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9921,22 +9912,22 @@
       <c r="A12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25" t="s">
+      <c r="E12" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9944,22 +9935,22 @@
       <c r="A13" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25" t="s">
+      <c r="E13" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9967,22 +9958,22 @@
       <c r="A14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25" t="s">
+      <c r="E14" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9990,22 +9981,22 @@
       <c r="A15" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25" t="s">
+      <c r="E15" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10025,7 +10016,7 @@
       <c r="E16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10045,7 +10036,7 @@
       <c r="E17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10053,22 +10044,22 @@
       <c r="A18" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="25" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="25" t="s">
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10076,26 +10067,26 @@
       <c r="A19" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25" t="s">
+      <c r="G19" s="24"/>
+      <c r="H19" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="24" t="s">
         <v>53</v>
       </c>
     </row>
@@ -10103,22 +10094,22 @@
       <c r="A20" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25" t="s">
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10126,22 +10117,22 @@
       <c r="A21" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25" t="s">
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10149,22 +10140,22 @@
       <c r="A22" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25" t="s">
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10172,22 +10163,22 @@
       <c r="A23" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25" t="s">
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10195,22 +10186,22 @@
       <c r="A24" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25" t="s">
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10218,22 +10209,22 @@
       <c r="A25" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25" t="s">
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10241,22 +10232,22 @@
       <c r="A26" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25" t="s">
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10264,22 +10255,22 @@
       <c r="A27" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25" t="s">
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10287,22 +10278,22 @@
       <c r="A28" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25" t="s">
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10310,22 +10301,22 @@
       <c r="A29" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25" t="s">
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10333,22 +10324,22 @@
       <c r="A30" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25" t="s">
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10356,22 +10347,22 @@
       <c r="A31" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25" t="s">
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10379,22 +10370,22 @@
       <c r="A32" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25" t="s">
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10402,22 +10393,22 @@
       <c r="A33" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25" t="s">
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10425,22 +10416,22 @@
       <c r="A34" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25" t="s">
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10448,22 +10439,22 @@
       <c r="A35" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25" t="s">
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10471,22 +10462,22 @@
       <c r="A36" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25" t="s">
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10494,22 +10485,22 @@
       <c r="A37" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25" t="s">
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10517,22 +10508,22 @@
       <c r="A38" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25" t="s">
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10540,22 +10531,22 @@
       <c r="A39" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25" t="s">
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10563,22 +10554,22 @@
       <c r="A40" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25" t="s">
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10586,22 +10577,22 @@
       <c r="A41" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25" t="s">
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10609,22 +10600,22 @@
       <c r="A42" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25" t="s">
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10632,22 +10623,22 @@
       <c r="A43" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25" t="s">
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10655,22 +10646,22 @@
       <c r="A44" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25" t="s">
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10678,22 +10669,22 @@
       <c r="A45" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25" t="s">
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10701,22 +10692,22 @@
       <c r="A46" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25" t="s">
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10724,22 +10715,22 @@
       <c r="A47" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25" t="s">
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10747,22 +10738,22 @@
       <c r="A48" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="E48" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25" t="s">
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10770,22 +10761,22 @@
       <c r="A49" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="E49" s="25" t="s">
+      <c r="E49" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25" t="s">
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10793,22 +10784,22 @@
       <c r="A50" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E50" s="25" t="s">
+      <c r="E50" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25" t="s">
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10816,22 +10807,22 @@
       <c r="A51" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="E51" s="25" t="s">
+      <c r="E51" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25" t="s">
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10839,22 +10830,22 @@
       <c r="A52" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E52" s="25" t="s">
+      <c r="E52" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25" t="s">
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10862,22 +10853,22 @@
       <c r="A53" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D53" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="E53" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25" t="s">
+      <c r="E53" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10885,22 +10876,22 @@
       <c r="A54" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="D54" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="E54" s="25" t="s">
+      <c r="E54" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25" t="s">
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10908,22 +10899,22 @@
       <c r="A55" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="25" t="s">
+      <c r="D55" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E55" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25" t="s">
+      <c r="E55" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10931,22 +10922,22 @@
       <c r="A56" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E56" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25" t="s">
+      <c r="E56" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10954,22 +10945,22 @@
       <c r="A57" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="E57" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25" t="s">
+      <c r="E57" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10977,22 +10968,22 @@
       <c r="A58" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="E58" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25" t="s">
+      <c r="E58" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -11000,22 +10991,22 @@
       <c r="A59" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="E59" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25" t="s">
+      <c r="E59" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -11023,22 +11014,22 @@
       <c r="A60" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="D60" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E60" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25" t="s">
+      <c r="E60" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -11046,22 +11037,22 @@
       <c r="A61" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="C61" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="28" t="s">
+      <c r="D61" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="E61" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="25" t="s">
+      <c r="E61" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11069,22 +11060,22 @@
       <c r="A62" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D62" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="E62" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25" t="s">
+      <c r="E62" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -11092,22 +11083,22 @@
       <c r="A63" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D63" s="25" t="s">
+      <c r="D63" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="E63" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25" t="s">
+      <c r="E63" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -11115,22 +11106,22 @@
       <c r="A64" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D64" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="E64" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25" t="s">
+      <c r="E64" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -11138,22 +11129,22 @@
       <c r="A65" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D65" s="25" t="s">
+      <c r="D65" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="E65" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="25" t="s">
+      <c r="E65" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -13929,7 +13920,7 @@
   <sheetPr/>
   <dimension ref="A2:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+    <sheetView topLeftCell="A153" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>

--- a/Data/Entities/OpenNGS/OpenNGS.Item.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowHeight="17655" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,20 @@
   <definedNames>
     <definedName name="B">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1685,6 +1698,12 @@
     <t>背部</t>
   </si>
   <si>
+    <t>ITEM_KIND_EQUIP_SHOES</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
     <t>ITEM_KIND_MATERIAL_BLUEPRINT</t>
   </si>
   <si>
@@ -1704,12 +1723,6 @@
   </si>
   <si>
     <t>遗物</t>
-  </si>
-  <si>
-    <t>ITEM_KIND_EQUIP_SHOES</t>
-  </si>
-  <si>
-    <t>鞋子</t>
   </si>
   <si>
     <t>ITEM_INVISIBLE</t>
@@ -1850,7 +1863,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1937,34 +1950,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1978,14 +1963,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2025,6 +2002,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2075,7 +2067,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2120,55 +2133,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2186,31 +2157,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2234,6 +2193,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2246,7 +2217,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2270,7 +2265,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2289,6 +2296,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2432,21 +2445,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2475,6 +2473,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2533,148 +2546,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2769,52 +2782,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -8160,16 +8173,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000" tint="0.799951170384838"/>
-          <bgColor rgb="FF000000" tint="0.799951170384838"/>
+          <fgColor rgb="FF000000" tint="0.799981688894314"/>
+          <bgColor rgb="FF000000" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000" tint="0.799951170384838"/>
-          <bgColor rgb="FF000000" tint="0.799951170384838"/>
+          <fgColor rgb="FF000000" tint="0.799981688894314"/>
+          <bgColor rgb="FF000000" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8226,23 +8239,23 @@
           <color rgb="FF000000"/>
         </bottom>
         <horizontal style="thin">
-          <color rgb="FF000000" tint="0.399945066682943"/>
+          <color rgb="FF000000" tint="0.399975585192419"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799951170384838"/>
-          <bgColor theme="4" tint="0.799951170384838"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799951170384838"/>
-          <bgColor theme="4" tint="0.799951170384838"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8299,13 +8312,13 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399945066682943"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Dark" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Dark" pivot="0" count="7" xr9:uid="{A23A6A0A-29F2-439B-92E2-2009244044D1}">
       <tableStyleElement type="wholeTable" dxfId="375"/>
       <tableStyleElement type="headerRow" dxfId="374"/>
       <tableStyleElement type="totalRow" dxfId="373"/>
@@ -8314,7 +8327,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="370"/>
       <tableStyleElement type="firstColumnStripe" dxfId="369"/>
     </tableStyle>
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="382"/>
       <tableStyleElement type="headerRow" dxfId="381"/>
       <tableStyleElement type="totalRow" dxfId="380"/>
@@ -9630,7 +9643,7 @@
   <sheetPr/>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -17199,8 +17212,8 @@
   <sheetPr/>
   <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -18576,7 +18589,7 @@
       <c r="C96" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="2">
         <v>1</v>
       </c>
       <c r="E96" s="1"/>
@@ -18594,7 +18607,7 @@
       <c r="C97" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="2">
         <v>2</v>
       </c>
       <c r="E97" s="1"/>
@@ -18612,7 +18625,7 @@
       <c r="C98" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="2">
         <v>3</v>
       </c>
       <c r="E98" s="1"/>
@@ -18630,7 +18643,7 @@
       <c r="C99" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="2">
         <v>4</v>
       </c>
       <c r="E99" s="1"/>
@@ -18648,7 +18661,7 @@
       <c r="C100" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="2">
         <v>5</v>
       </c>
       <c r="E100" s="1"/>
@@ -18666,7 +18679,7 @@
       <c r="C101" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="2">
         <v>6</v>
       </c>
       <c r="E101" s="1"/>
@@ -18684,7 +18697,7 @@
       <c r="C102" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="2">
         <v>7</v>
       </c>
       <c r="E102" s="1"/>
@@ -18702,7 +18715,7 @@
       <c r="C103" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="2">
         <v>8</v>
       </c>
       <c r="E103" s="1"/>
@@ -18718,9 +18731,9 @@
         <v>156</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D104" s="1">
+        <v>538</v>
+      </c>
+      <c r="D104" s="2">
         <v>9</v>
       </c>
       <c r="E104" s="1"/>
@@ -18730,15 +18743,15 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D105" s="1">
+        <v>128</v>
+      </c>
+      <c r="D105" s="2">
         <v>10</v>
       </c>
       <c r="E105" s="1"/>
@@ -18756,7 +18769,7 @@
       <c r="C106" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="2">
         <v>11</v>
       </c>
       <c r="E106" s="1"/>
@@ -18774,7 +18787,7 @@
       <c r="C107" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="2">
         <v>12</v>
       </c>
       <c r="E107" s="1"/>
@@ -18792,7 +18805,7 @@
       <c r="C108" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="2">
         <v>13</v>
       </c>
       <c r="E108" s="1"/>

--- a/Data/Entities/OpenNGS/OpenNGS.Item.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="595">
   <si>
     <t>Package</t>
   </si>
@@ -1399,6 +1399,18 @@
   </si>
   <si>
     <t>背包数据</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>道具等级</t>
+  </si>
+  <si>
+    <t>PromotionLevel</t>
+  </si>
+  <si>
+    <t>道具升阶等级</t>
   </si>
   <si>
     <t>道具类别</t>
@@ -8949,8 +8961,8 @@
 </file>
 
 <file path=xl/tables/table46.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="ItemSaveData" displayName="ItemSaveData" ref="A205:F210" totalsRowShown="0">
-  <autoFilter ref="A205:F210"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="ItemSaveData" displayName="ItemSaveData" ref="A205:F212" totalsRowShown="0">
+  <autoFilter ref="A205:F212"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="251"/>
     <tableColumn id="2" name="Type" dataDxfId="252"/>
@@ -13931,10 +13943,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G210"/>
+  <dimension ref="A2:G212"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -17062,7 +17074,7 @@
       <c r="C206" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="D206" s="18">
+      <c r="D206" s="17">
         <v>1</v>
       </c>
       <c r="E206" s="17" t="s">
@@ -17082,7 +17094,7 @@
       <c r="C207" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D207" s="18">
+      <c r="D207" s="17">
         <v>2</v>
       </c>
       <c r="E207" s="17"/>
@@ -17100,7 +17112,7 @@
       <c r="C208" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="D208" s="18">
+      <c r="D208" s="17">
         <v>3</v>
       </c>
       <c r="E208" s="17"/>
@@ -17118,7 +17130,7 @@
       <c r="C209" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D209" s="18">
+      <c r="D209" s="17">
         <v>4</v>
       </c>
       <c r="E209" s="17"/>
@@ -17136,11 +17148,47 @@
       <c r="C210" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="D210" s="18">
+      <c r="D210" s="17">
         <v>5</v>
       </c>
       <c r="E210" s="17"/>
       <c r="F210" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" ht="15.75" spans="1:6">
+      <c r="A211" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="B211" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C211" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="D211" s="17">
+        <v>6</v>
+      </c>
+      <c r="E211" s="17"/>
+      <c r="F211" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" ht="15.75" spans="1:6">
+      <c r="A212" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="B212" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C212" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="D212" s="17">
+        <v>7</v>
+      </c>
+      <c r="E212" s="17"/>
+      <c r="F212" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -17212,7 +17260,7 @@
   <sheetPr/>
   <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
@@ -17239,7 +17287,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -17281,13 +17329,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -17299,13 +17347,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -17317,13 +17365,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
@@ -17335,13 +17383,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
@@ -17353,13 +17401,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D10" s="2">
         <v>4</v>
@@ -17371,13 +17419,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
@@ -17389,13 +17437,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D12" s="2">
         <v>6</v>
@@ -17407,13 +17455,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D13" s="2">
         <v>7</v>
@@ -17425,13 +17473,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D14" s="2">
         <v>8</v>
@@ -17491,13 +17539,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -17509,13 +17557,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -17527,13 +17575,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
@@ -17593,13 +17641,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -17611,13 +17659,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -17629,13 +17677,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D28" s="2">
         <v>2</v>
@@ -17695,13 +17743,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -17713,13 +17761,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -17779,13 +17827,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -17797,13 +17845,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -17863,13 +17911,13 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D45" s="2">
         <v>0</v>
@@ -17881,13 +17929,13 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
@@ -17899,7 +17947,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -17939,13 +17987,13 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D52" s="2">
         <v>0</v>
@@ -17957,13 +18005,13 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D53" s="2">
         <v>1</v>
@@ -17975,13 +18023,13 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D54" s="2">
         <v>2</v>
@@ -17993,13 +18041,13 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D55" s="2">
         <v>3</v>
@@ -18011,13 +18059,13 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D56" s="2">
         <v>4</v>
@@ -18077,13 +18125,13 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D61" s="2">
         <v>0</v>
@@ -18095,13 +18143,13 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D62" s="2">
         <v>1</v>
@@ -18113,13 +18161,13 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D63" s="2">
         <v>100</v>
@@ -18131,13 +18179,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D64" s="2">
         <v>101</v>
@@ -18205,13 +18253,13 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="4" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D70" s="2">
         <v>0</v>
@@ -18223,13 +18271,13 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="4" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D71" s="2">
         <v>1</v>
@@ -18241,13 +18289,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D72" s="2">
         <v>2</v>
@@ -18259,13 +18307,13 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="4" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D73" s="2">
         <v>3</v>
@@ -18277,13 +18325,13 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="4" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D74" s="2">
         <v>4</v>
@@ -18295,13 +18343,13 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="4" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D75" s="2">
         <v>5</v>
@@ -18313,13 +18361,13 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D76" s="2">
         <v>6</v>
@@ -18387,13 +18435,13 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
@@ -18405,13 +18453,13 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
@@ -18471,13 +18519,13 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="5" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D88" s="2">
         <v>0</v>
@@ -18489,13 +18537,13 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D89" s="1">
         <v>1</v>
@@ -18523,7 +18571,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -18563,13 +18611,13 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="5" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D95" s="2">
         <v>0</v>
@@ -18581,13 +18629,13 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D96" s="2">
         <v>1</v>
@@ -18599,13 +18647,13 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D97" s="2">
         <v>2</v>
@@ -18617,13 +18665,13 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D98" s="2">
         <v>3</v>
@@ -18635,13 +18683,13 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D99" s="2">
         <v>4</v>
@@ -18653,13 +18701,13 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D100" s="2">
         <v>5</v>
@@ -18671,13 +18719,13 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D101" s="2">
         <v>6</v>
@@ -18689,13 +18737,13 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D102" s="2">
         <v>7</v>
@@ -18707,13 +18755,13 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D103" s="2">
         <v>8</v>
@@ -18725,13 +18773,13 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D104" s="2">
         <v>9</v>
@@ -18743,7 +18791,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>156</v>
@@ -18761,13 +18809,13 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D106" s="2">
         <v>11</v>
@@ -18779,13 +18827,13 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D107" s="2">
         <v>12</v>
@@ -18797,13 +18845,13 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D108" s="2">
         <v>13</v>
@@ -18871,13 +18919,13 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="5" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D114" s="2">
         <v>0</v>
@@ -18889,13 +18937,13 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D115" s="1">
         <v>1</v>
@@ -18945,13 +18993,13 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D121" s="2">
         <v>1</v>
@@ -18971,7 +19019,7 @@
         <v>156</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D122" s="2">
         <v>2</v>
@@ -19004,10 +19052,10 @@
         <v>154</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D124" s="2">
         <v>4</v>
@@ -19030,7 +19078,7 @@
         <v>44</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -19059,13 +19107,13 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D130" s="2">
         <v>1</v>
@@ -19088,7 +19136,7 @@
         <v>42</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -19117,7 +19165,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>39</v>
@@ -19129,7 +19177,7 @@
         <v>1</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>13</v>
@@ -19162,13 +19210,13 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D140" s="2">
         <v>0</v>
@@ -19180,13 +19228,13 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D141" s="2">
         <v>1</v>
@@ -19198,13 +19246,13 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="D142" s="2">
         <v>2</v>
@@ -19246,13 +19294,13 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D147" s="2">
         <v>0</v>
@@ -19264,13 +19312,13 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D148" s="2">
         <v>1</v>
@@ -19282,13 +19330,13 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="D149" s="2">
         <v>2</v>
@@ -19300,13 +19348,13 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="D150" s="2">
         <v>3</v>
@@ -19348,13 +19396,13 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D156" s="2">
         <v>0</v>
@@ -19366,13 +19414,13 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D157" s="2">
         <v>1</v>
@@ -19384,13 +19432,13 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D158" s="2">
         <v>2</v>
@@ -19402,13 +19450,13 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D159" s="2">
         <v>3</v>
@@ -19420,13 +19468,13 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C160" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D160" s="2">
         <v>4</v>
@@ -19437,13 +19485,13 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C161" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D161" s="2">
         <v>5</v>
@@ -19454,13 +19502,13 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C162" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D162" s="2">
         <v>6</v>
@@ -19471,13 +19519,13 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C163" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="D163" s="2">
         <v>7</v>
@@ -19488,13 +19536,13 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C164" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="D164" s="2">
         <v>8</v>

--- a/Data/Entities/OpenNGS/OpenNGS.Item.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="565">
   <si>
     <t>Package</t>
   </si>
@@ -525,27 +525,6 @@
     <t>返回结果枚举</t>
   </si>
   <si>
-    <t>equips</t>
-  </si>
-  <si>
-    <t>装备的游戏数据</t>
-  </si>
-  <si>
-    <t>stashs</t>
-  </si>
-  <si>
-    <t>仓库的游戏数据</t>
-  </si>
-  <si>
-    <t>bags</t>
-  </si>
-  <si>
-    <t>背包的游戏数据</t>
-  </si>
-  <si>
-    <t>ItemSaveData</t>
-  </si>
-  <si>
     <t>Tag</t>
   </si>
   <si>
@@ -1311,6 +1290,18 @@
     <t>索引</t>
   </si>
   <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>道具等级</t>
+  </si>
+  <si>
+    <t>PromotionLevel</t>
+  </si>
+  <si>
+    <t>道具升阶等级</t>
+  </si>
+  <si>
     <t>栏位ID</t>
   </si>
   <si>
@@ -1330,87 +1321,6 @@
   </si>
   <si>
     <t>按照栏位分的道具数据列表</t>
-  </si>
-  <si>
-    <t>stashDict</t>
-  </si>
-  <si>
-    <t>stashs[]</t>
-  </si>
-  <si>
-    <t>仓库道具数据列表</t>
-  </si>
-  <si>
-    <t>equipDict</t>
-  </si>
-  <si>
-    <t>equips[]</t>
-  </si>
-  <si>
-    <t>装备数据字典</t>
-  </si>
-  <si>
-    <t>bagDict</t>
-  </si>
-  <si>
-    <t>bags[]</t>
-  </si>
-  <si>
-    <t>背包数据列表</t>
-  </si>
-  <si>
-    <t>stashCapacity</t>
-  </si>
-  <si>
-    <t>仓库容量</t>
-  </si>
-  <si>
-    <t>bagCapacity</t>
-  </si>
-  <si>
-    <t>背包容量</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>装备索引</t>
-  </si>
-  <si>
-    <t>equip</t>
-  </si>
-  <si>
-    <t>装备数据</t>
-  </si>
-  <si>
-    <t>仓库索引</t>
-  </si>
-  <si>
-    <t>stashItem</t>
-  </si>
-  <si>
-    <t>仓库数据</t>
-  </si>
-  <si>
-    <t>背包索引</t>
-  </si>
-  <si>
-    <t>bagItem</t>
-  </si>
-  <si>
-    <t>背包数据</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>道具等级</t>
-  </si>
-  <si>
-    <t>PromotionLevel</t>
-  </si>
-  <si>
-    <t>道具升阶等级</t>
   </si>
   <si>
     <t>道具类别</t>
@@ -2703,7 +2613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2788,9 +2698,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2843,7 +2750,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="383">
+  <dxfs count="367">
     <dxf>
       <font>
         <name val="微软雅黑"/>
@@ -6504,255 +6411,6 @@
     </dxf>
     <dxf>
       <font>
-        <name val="等线"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="等线"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="等线"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="等线"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="等线"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="等线"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
         <name val="微软雅黑"/>
         <scheme val="none"/>
         <charset val="134"/>
@@ -8331,22 +7989,22 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStylePreset3_Dark" pivot="0" count="7" xr9:uid="{A23A6A0A-29F2-439B-92E2-2009244044D1}">
-      <tableStyleElement type="wholeTable" dxfId="375"/>
-      <tableStyleElement type="headerRow" dxfId="374"/>
-      <tableStyleElement type="totalRow" dxfId="373"/>
-      <tableStyleElement type="firstColumn" dxfId="372"/>
-      <tableStyleElement type="lastColumn" dxfId="371"/>
-      <tableStyleElement type="firstRowStripe" dxfId="370"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="369"/>
+      <tableStyleElement type="wholeTable" dxfId="359"/>
+      <tableStyleElement type="headerRow" dxfId="358"/>
+      <tableStyleElement type="totalRow" dxfId="357"/>
+      <tableStyleElement type="firstColumn" dxfId="356"/>
+      <tableStyleElement type="lastColumn" dxfId="355"/>
+      <tableStyleElement type="firstRowStripe" dxfId="354"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="353"/>
     </tableStyle>
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="382"/>
-      <tableStyleElement type="headerRow" dxfId="381"/>
-      <tableStyleElement type="totalRow" dxfId="380"/>
-      <tableStyleElement type="firstColumn" dxfId="379"/>
-      <tableStyleElement type="lastColumn" dxfId="378"/>
-      <tableStyleElement type="firstRowStripe" dxfId="377"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="376"/>
+      <tableStyleElement type="wholeTable" dxfId="366"/>
+      <tableStyleElement type="headerRow" dxfId="365"/>
+      <tableStyleElement type="totalRow" dxfId="364"/>
+      <tableStyleElement type="firstColumn" dxfId="363"/>
+      <tableStyleElement type="lastColumn" dxfId="362"/>
+      <tableStyleElement type="firstRowStripe" dxfId="361"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="360"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -8358,8 +8016,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Entities" displayName="Entities" ref="A1:I65" totalsRowShown="0">
-  <autoFilter ref="A1:I65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Entities" displayName="Entities" ref="A1:I61" totalsRowShown="0">
+  <autoFilter ref="A1:I61"/>
   <tableColumns count="9">
     <tableColumn id="9" name="Package" dataDxfId="0"/>
     <tableColumn id="1" name="Name" dataDxfId="1"/>
@@ -8916,8 +8574,8 @@
 </file>
 
 <file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="ItemSaveState" displayName="ItemSaveState" ref="A160:F167" totalsRowShown="0">
-  <autoFilter ref="A160:F167"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="ItemSaveState" displayName="ItemSaveState" ref="A160:F169" totalsRowShown="0">
+  <autoFilter ref="A160:F169"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="241"/>
     <tableColumn id="2" name="Type" dataDxfId="242"/>
@@ -8931,8 +8589,8 @@
 </file>
 
 <file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="55" name="ItemContainer" displayName="ItemContainer" ref="A178:F184" totalsRowShown="0">
-  <autoFilter ref="A178:F184"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="55" name="ItemContainer" displayName="ItemContainer" ref="A181:F182" totalsRowShown="0">
+  <autoFilter ref="A181:F182"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="247"/>
     <tableColumn id="2" name="Type" dataDxfId="248"/>
@@ -8946,8 +8604,8 @@
 </file>
 
 <file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="ItemColumn" displayName="ItemColumn" ref="A171:F174" totalsRowShown="0">
-  <autoFilter ref="A171:F174"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="ItemColumn" displayName="ItemColumn" ref="A174:F177" totalsRowShown="0">
+  <autoFilter ref="A174:F177"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Type"/>
@@ -8961,23 +8619,8 @@
 </file>
 
 <file path=xl/tables/table46.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="ItemSaveData" displayName="ItemSaveData" ref="A205:F212" totalsRowShown="0">
-  <autoFilter ref="A205:F212"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="251"/>
-    <tableColumn id="2" name="Type" dataDxfId="252"/>
-    <tableColumn id="3" name="Description" dataDxfId="253"/>
-    <tableColumn id="4" name="Tag" dataDxfId="254"/>
-    <tableColumn id="5" name="Attributes" dataDxfId="255"/>
-    <tableColumn id="6" name="Scope" dataDxfId="256"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table47.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="59" name="equips" displayName="equips" ref="A189:F191" totalsRowShown="0">
-  <autoFilter ref="A189:F191"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="63" name="ItemResult" displayName="ItemResult" ref="A154:F156" totalsRowShown="0">
+  <autoFilter ref="A154:F156"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Type"/>
@@ -8990,33 +8633,48 @@
 </table>
 </file>
 
+<file path=xl/tables/table47.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="ITEM_CATEGORY" displayName="ITEM_CATEGORY" ref="A5:F14" totalsRowShown="0">
+  <autoFilter ref="A5:F14"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Name" dataDxfId="251"/>
+    <tableColumn id="2" name="Type" dataDxfId="252"/>
+    <tableColumn id="5" name="Description" dataDxfId="253"/>
+    <tableColumn id="3" name="Tag" dataDxfId="254"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="255"/>
+    <tableColumn id="6" name="Scope" dataDxfId="256"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table48.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="60" name="stashs" displayName="stashs" ref="A194:F196" totalsRowShown="0">
-  <autoFilter ref="A194:F196"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="ITEM_PACK_CATEGORY" displayName="ITEM_PACK_CATEGORY" ref="A32:F34" totalsRowShown="0">
+  <autoFilter ref="A32:F34"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="257"/>
     <tableColumn id="2" name="Type" dataDxfId="258"/>
-    <tableColumn id="3" name="Description" dataDxfId="259"/>
-    <tableColumn id="4" name="Tag" dataDxfId="260"/>
-    <tableColumn id="5" name="Attributes"/>
-    <tableColumn id="6" name="Scope" dataDxfId="261"/>
+    <tableColumn id="5" name="Description" dataDxfId="259"/>
+    <tableColumn id="3" name="Tag" dataDxfId="260"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="261"/>
+    <tableColumn id="6" name="Scope" dataDxfId="262"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table49.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="61" name="bags" displayName="bags" ref="A199:F201" totalsRowShown="0">
-  <autoFilter ref="A199:F201"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="ITEM_PACK_RANDOM_TYPE" displayName="ITEM_PACK_RANDOM_TYPE" ref="A38:F40" totalsRowShown="0">
+  <autoFilter ref="A38:F40"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="262"/>
-    <tableColumn id="2" name="Type" dataDxfId="263"/>
-    <tableColumn id="3" name="Description" dataDxfId="264"/>
-    <tableColumn id="4" name="Tag" dataDxfId="265"/>
-    <tableColumn id="5" name="Attributes"/>
-    <tableColumn id="6" name="Scope" dataDxfId="266"/>
+    <tableColumn id="1" name="Name" dataDxfId="263"/>
+    <tableColumn id="2" name="Type" dataDxfId="264"/>
+    <tableColumn id="5" name="Description" dataDxfId="265"/>
+    <tableColumn id="3" name="Tag" dataDxfId="266"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="267"/>
+    <tableColumn id="6" name="Scope" dataDxfId="268"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -9036,150 +8694,150 @@
 </file>
 
 <file path=xl/tables/table50.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="63" name="ItemResult" displayName="ItemResult" ref="A154:F156" totalsRowShown="0">
-  <autoFilter ref="A154:F156"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="ITEM_USE_TIME_TYPE" displayName="ITEM_USE_TIME_TYPE" ref="A44:F46" totalsRowShown="0">
+  <autoFilter ref="A44:F46"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Type"/>
-    <tableColumn id="3" name="Description"/>
-    <tableColumn id="4" name="Tag"/>
-    <tableColumn id="5" name="Attributes"/>
-    <tableColumn id="6" name="Scope"/>
+    <tableColumn id="1" name="Name" dataDxfId="269"/>
+    <tableColumn id="2" name="Type" dataDxfId="270"/>
+    <tableColumn id="5" name="Description" dataDxfId="271"/>
+    <tableColumn id="3" name="Tag" dataDxfId="272"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="273"/>
+    <tableColumn id="6" name="Scope" dataDxfId="274"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table51.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="ITEM_CATEGORY" displayName="ITEM_CATEGORY" ref="A5:F14" totalsRowShown="0">
-  <autoFilter ref="A5:F14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="ITEM_EXPIRY_TYPE" displayName="ITEM_EXPIRY_TYPE" ref="A18:F21" totalsRowShown="0">
+  <autoFilter ref="A18:F21"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="267"/>
-    <tableColumn id="2" name="Type" dataDxfId="268"/>
-    <tableColumn id="5" name="Description" dataDxfId="269"/>
-    <tableColumn id="3" name="Tag" dataDxfId="270"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="271"/>
-    <tableColumn id="6" name="Scope" dataDxfId="272"/>
+    <tableColumn id="1" name="Name" dataDxfId="275"/>
+    <tableColumn id="2" name="Type" dataDxfId="276"/>
+    <tableColumn id="5" name="Description" dataDxfId="277"/>
+    <tableColumn id="3" name="Tag" dataDxfId="278"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="279"/>
+    <tableColumn id="6" name="Scope" dataDxfId="280"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table52.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="ITEM_PACK_CATEGORY" displayName="ITEM_PACK_CATEGORY" ref="A32:F34" totalsRowShown="0">
-  <autoFilter ref="A32:F34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="ITEM_USAGE_TYPE" displayName="ITEM_USAGE_TYPE" ref="A25:F28" totalsRowShown="0">
+  <autoFilter ref="A25:F28"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="273"/>
-    <tableColumn id="2" name="Type" dataDxfId="274"/>
-    <tableColumn id="5" name="Description" dataDxfId="275"/>
-    <tableColumn id="3" name="Tag" dataDxfId="276"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="277"/>
-    <tableColumn id="6" name="Scope" dataDxfId="278"/>
+    <tableColumn id="1" name="Name" dataDxfId="281"/>
+    <tableColumn id="2" name="Type" dataDxfId="282"/>
+    <tableColumn id="5" name="Description" dataDxfId="283"/>
+    <tableColumn id="3" name="Tag" dataDxfId="284"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="285"/>
+    <tableColumn id="6" name="Scope" dataDxfId="286"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table53.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="ITEM_PACK_RANDOM_TYPE" displayName="ITEM_PACK_RANDOM_TYPE" ref="A38:F40" totalsRowShown="0">
-  <autoFilter ref="A38:F40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="ITEM_TYPE" displayName="ITEM_TYPE" ref="A51:F56" totalsRowShown="0">
+  <autoFilter ref="A51:F56"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="279"/>
-    <tableColumn id="2" name="Type" dataDxfId="280"/>
-    <tableColumn id="5" name="Description" dataDxfId="281"/>
-    <tableColumn id="3" name="Tag" dataDxfId="282"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="283"/>
-    <tableColumn id="6" name="Scope" dataDxfId="284"/>
+    <tableColumn id="1" name="Name" dataDxfId="287"/>
+    <tableColumn id="2" name="Type" dataDxfId="288"/>
+    <tableColumn id="5" name="Description" dataDxfId="289"/>
+    <tableColumn id="3" name="Tag" dataDxfId="290"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="291"/>
+    <tableColumn id="6" name="Scope" dataDxfId="292"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table54.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="ITEM_USE_TIME_TYPE" displayName="ITEM_USE_TIME_TYPE" ref="A44:F46" totalsRowShown="0">
-  <autoFilter ref="A44:F46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="ITEM_ATTRIBUTE" displayName="ITEM_ATTRIBUTE" ref="A60:F64" totalsRowShown="0">
+  <autoFilter ref="A60:F64"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="285"/>
-    <tableColumn id="2" name="Type" dataDxfId="286"/>
-    <tableColumn id="5" name="Description" dataDxfId="287"/>
-    <tableColumn id="3" name="Tag" dataDxfId="288"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="289"/>
-    <tableColumn id="6" name="Scope" dataDxfId="290"/>
+    <tableColumn id="1" name="Name" dataDxfId="293"/>
+    <tableColumn id="2" name="Type" dataDxfId="294"/>
+    <tableColumn id="5" name="Description" dataDxfId="295"/>
+    <tableColumn id="3" name="Tag" dataDxfId="296"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="297"/>
+    <tableColumn id="6" name="Scope" dataDxfId="298"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table55.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="ITEM_EXPIRY_TYPE" displayName="ITEM_EXPIRY_TYPE" ref="A18:F21" totalsRowShown="0">
-  <autoFilter ref="A18:F21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="ITEM_RARITY_TYPE" displayName="ITEM_RARITY_TYPE" ref="A69:F76" totalsRowShown="0">
+  <autoFilter ref="A69:F76"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="291"/>
-    <tableColumn id="2" name="Type" dataDxfId="292"/>
-    <tableColumn id="5" name="Description" dataDxfId="293"/>
-    <tableColumn id="3" name="Tag" dataDxfId="294"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="295"/>
-    <tableColumn id="6" name="Scope" dataDxfId="296"/>
+    <tableColumn id="1" name="Name" dataDxfId="299"/>
+    <tableColumn id="2" name="Type" dataDxfId="300"/>
+    <tableColumn id="5" name="Description" dataDxfId="301"/>
+    <tableColumn id="3" name="Tag" dataDxfId="302"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="303"/>
+    <tableColumn id="6" name="Scope" dataDxfId="304"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table56.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="ITEM_USAGE_TYPE" displayName="ITEM_USAGE_TYPE" ref="A25:F28" totalsRowShown="0">
-  <autoFilter ref="A25:F28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="ITEM_PLACE_TYPE" displayName="ITEM_PLACE_TYPE" ref="A87:F89" totalsRowShown="0">
+  <autoFilter ref="A87:F89"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="297"/>
-    <tableColumn id="2" name="Type" dataDxfId="298"/>
-    <tableColumn id="5" name="Description" dataDxfId="299"/>
-    <tableColumn id="3" name="Tag" dataDxfId="300"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="301"/>
-    <tableColumn id="6" name="Scope" dataDxfId="302"/>
+    <tableColumn id="1" name="Name" dataDxfId="305"/>
+    <tableColumn id="2" name="Type" dataDxfId="306"/>
+    <tableColumn id="5" name="Description" dataDxfId="307"/>
+    <tableColumn id="3" name="Tag" dataDxfId="308"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="309"/>
+    <tableColumn id="6" name="Scope" dataDxfId="310"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table57.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="ITEM_TYPE" displayName="ITEM_TYPE" ref="A51:F56" totalsRowShown="0">
-  <autoFilter ref="A51:F56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="ITEM_KIND" displayName="ITEM_KIND" ref="A94:F108" totalsRowShown="0">
+  <autoFilter ref="A94:F108"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="303"/>
-    <tableColumn id="2" name="Type" dataDxfId="304"/>
-    <tableColumn id="5" name="Description" dataDxfId="305"/>
-    <tableColumn id="3" name="Tag" dataDxfId="306"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="307"/>
-    <tableColumn id="6" name="Scope" dataDxfId="308"/>
+    <tableColumn id="1" name="Name" dataDxfId="311"/>
+    <tableColumn id="2" name="Type" dataDxfId="312"/>
+    <tableColumn id="5" name="Description" dataDxfId="313"/>
+    <tableColumn id="3" name="Tag" dataDxfId="314"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="315"/>
+    <tableColumn id="6" name="Scope" dataDxfId="316"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table58.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="ITEM_ATTRIBUTE" displayName="ITEM_ATTRIBUTE" ref="A60:F64" totalsRowShown="0">
-  <autoFilter ref="A60:F64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="ITEM_PLACE_EXPIRATION" displayName="ITEM_PLACE_EXPIRATION" ref="A81:F83" totalsRowShown="0">
+  <autoFilter ref="A81:F83"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="309"/>
-    <tableColumn id="2" name="Type" dataDxfId="310"/>
-    <tableColumn id="5" name="Description" dataDxfId="311"/>
-    <tableColumn id="3" name="Tag" dataDxfId="312"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="313"/>
-    <tableColumn id="6" name="Scope" dataDxfId="314"/>
+    <tableColumn id="1" name="Name" dataDxfId="317"/>
+    <tableColumn id="2" name="Type" dataDxfId="318"/>
+    <tableColumn id="5" name="Description" dataDxfId="319"/>
+    <tableColumn id="3" name="Tag" dataDxfId="320"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="321"/>
+    <tableColumn id="6" name="Scope" dataDxfId="322"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table59.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="ITEM_RARITY_TYPE" displayName="ITEM_RARITY_TYPE" ref="A69:F76" totalsRowShown="0">
-  <autoFilter ref="A69:F76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="ITEM_VISIBILITY_TYPE" displayName="ITEM_VISIBILITY_TYPE" ref="A113:F115" totalsRowShown="0">
+  <autoFilter ref="A113:F115"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="315"/>
-    <tableColumn id="2" name="Type" dataDxfId="316"/>
-    <tableColumn id="5" name="Description" dataDxfId="317"/>
-    <tableColumn id="3" name="Tag" dataDxfId="318"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="319"/>
-    <tableColumn id="6" name="Scope" dataDxfId="320"/>
+    <tableColumn id="1" name="Name" dataDxfId="323"/>
+    <tableColumn id="2" name="Type" dataDxfId="324"/>
+    <tableColumn id="5" name="Description" dataDxfId="325"/>
+    <tableColumn id="3" name="Tag" dataDxfId="326"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="327"/>
+    <tableColumn id="6" name="Scope" dataDxfId="328"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9201,111 +8859,51 @@
 </file>
 
 <file path=xl/tables/table60.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="ITEM_PLACE_TYPE" displayName="ITEM_PLACE_TYPE" ref="A87:F89" totalsRowShown="0">
-  <autoFilter ref="A87:F89"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="ItemData" displayName="ItemData" ref="A120:F124" totalsRowShown="0">
+  <autoFilter ref="A120:F124"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="321"/>
-    <tableColumn id="2" name="Type" dataDxfId="322"/>
-    <tableColumn id="5" name="Description" dataDxfId="323"/>
-    <tableColumn id="3" name="Tag" dataDxfId="324"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="325"/>
-    <tableColumn id="6" name="Scope" dataDxfId="326"/>
+    <tableColumn id="1" name="Name" dataDxfId="329"/>
+    <tableColumn id="2" name="Type" dataDxfId="330"/>
+    <tableColumn id="5" name="Description" dataDxfId="331"/>
+    <tableColumn id="3" name="Tag" dataDxfId="332"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="333"/>
+    <tableColumn id="6" name="Scope" dataDxfId="334"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table61.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="ITEM_KIND" displayName="ITEM_KIND" ref="A94:F108" totalsRowShown="0">
-  <autoFilter ref="A94:F108"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="ItemList" displayName="ItemList" ref="A135:F136" totalsRowShown="0">
+  <autoFilter ref="A135:F136"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="327"/>
-    <tableColumn id="2" name="Type" dataDxfId="328"/>
-    <tableColumn id="5" name="Description" dataDxfId="329"/>
-    <tableColumn id="3" name="Tag" dataDxfId="330"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="331"/>
-    <tableColumn id="6" name="Scope" dataDxfId="332"/>
+    <tableColumn id="1" name="Name" dataDxfId="335"/>
+    <tableColumn id="2" name="Type" dataDxfId="336"/>
+    <tableColumn id="5" name="Description" dataDxfId="337"/>
+    <tableColumn id="3" name="Tag" dataDxfId="338"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="339"/>
+    <tableColumn id="6" name="Scope" dataDxfId="340"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table62.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="ITEM_PLACE_EXPIRATION" displayName="ITEM_PLACE_EXPIRATION" ref="A81:F83" totalsRowShown="0">
-  <autoFilter ref="A81:F83"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="ItemSet" displayName="ItemSet" ref="A129:F130" totalsRowShown="0">
+  <autoFilter ref="A129:F130"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="333"/>
-    <tableColumn id="2" name="Type" dataDxfId="334"/>
-    <tableColumn id="5" name="Description" dataDxfId="335"/>
-    <tableColumn id="3" name="Tag" dataDxfId="336"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="337"/>
-    <tableColumn id="6" name="Scope" dataDxfId="338"/>
+    <tableColumn id="1" name="Name" dataDxfId="341"/>
+    <tableColumn id="2" name="Type" dataDxfId="342"/>
+    <tableColumn id="5" name="Description" dataDxfId="343"/>
+    <tableColumn id="3" name="Tag" dataDxfId="344"/>
+    <tableColumn id="4" name="Attributes" dataDxfId="345"/>
+    <tableColumn id="6" name="Scope" dataDxfId="346"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table63.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="ITEM_VISIBILITY_TYPE" displayName="ITEM_VISIBILITY_TYPE" ref="A113:F115" totalsRowShown="0">
-  <autoFilter ref="A113:F115"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="339"/>
-    <tableColumn id="2" name="Type" dataDxfId="340"/>
-    <tableColumn id="5" name="Description" dataDxfId="341"/>
-    <tableColumn id="3" name="Tag" dataDxfId="342"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="343"/>
-    <tableColumn id="6" name="Scope" dataDxfId="344"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table64.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="ItemData" displayName="ItemData" ref="A120:F124" totalsRowShown="0">
-  <autoFilter ref="A120:F124"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="345"/>
-    <tableColumn id="2" name="Type" dataDxfId="346"/>
-    <tableColumn id="5" name="Description" dataDxfId="347"/>
-    <tableColumn id="3" name="Tag" dataDxfId="348"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="349"/>
-    <tableColumn id="6" name="Scope" dataDxfId="350"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table65.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="ItemList" displayName="ItemList" ref="A135:F136" totalsRowShown="0">
-  <autoFilter ref="A135:F136"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="351"/>
-    <tableColumn id="2" name="Type" dataDxfId="352"/>
-    <tableColumn id="5" name="Description" dataDxfId="353"/>
-    <tableColumn id="3" name="Tag" dataDxfId="354"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="355"/>
-    <tableColumn id="6" name="Scope" dataDxfId="356"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table66.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="ItemSet" displayName="ItemSet" ref="A129:F130" totalsRowShown="0">
-  <autoFilter ref="A129:F130"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="357"/>
-    <tableColumn id="2" name="Type" dataDxfId="358"/>
-    <tableColumn id="5" name="Description" dataDxfId="359"/>
-    <tableColumn id="3" name="Tag" dataDxfId="360"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="361"/>
-    <tableColumn id="6" name="Scope" dataDxfId="362"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table67.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="EQUIP_RESULT_TYPE" displayName="EQUIP_RESULT_TYPE" ref="A139:F142" totalsRowShown="0">
   <autoFilter ref="A139:F142"/>
   <tableColumns count="6">
@@ -9320,22 +8918,22 @@
 </table>
 </file>
 
-<file path=xl/tables/table68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table64.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="NUMBER_FORMAT" displayName="NUMBER_FORMAT" ref="A146:F150" totalsRowShown="0">
   <autoFilter ref="A146:F150"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="363"/>
-    <tableColumn id="2" name="Type" dataDxfId="364"/>
-    <tableColumn id="3" name="Description" dataDxfId="365"/>
-    <tableColumn id="4" name="Tag" dataDxfId="366"/>
-    <tableColumn id="5" name="Attributes" dataDxfId="367"/>
-    <tableColumn id="6" name="Scope" dataDxfId="368"/>
+    <tableColumn id="1" name="Name" dataDxfId="347"/>
+    <tableColumn id="2" name="Type" dataDxfId="348"/>
+    <tableColumn id="3" name="Description" dataDxfId="349"/>
+    <tableColumn id="4" name="Tag" dataDxfId="350"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="351"/>
+    <tableColumn id="6" name="Scope" dataDxfId="352"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table65.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="ItemResultType" displayName="ItemResultType" ref="A155:F164" totalsRowShown="0">
   <autoFilter ref="A155:F164"/>
   <tableColumns count="6">
@@ -9653,10 +9251,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11079,98 +10677,6 @@
       <c r="H61" s="27"/>
       <c r="I61" s="24" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E62" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E64" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="24" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -11220,10 +10726,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
@@ -11231,19 +10737,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
@@ -11251,19 +10757,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -11271,19 +10777,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D8" s="2">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>13</v>
@@ -11371,7 +10877,7 @@
   <sheetData>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -11390,10 +10896,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
@@ -11401,13 +10907,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -11419,13 +10925,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -11451,10 +10957,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>4</v>
@@ -11462,19 +10968,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
@@ -11482,19 +10988,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D12" s="2">
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -11508,13 +11014,13 @@
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D13" s="2">
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>13</v>
@@ -11522,19 +11028,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D14" s="2">
         <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
@@ -11564,10 +11070,10 @@
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>4</v>
@@ -11575,19 +11081,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>13</v>
@@ -11625,10 +11131,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>4</v>
@@ -11636,19 +11142,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>13</v>
@@ -11656,19 +11162,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D24" s="2">
         <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>13</v>
@@ -11698,10 +11204,10 @@
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>4</v>
@@ -11709,19 +11215,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>13</v>
@@ -11729,19 +11235,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D29" s="2">
         <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>13</v>
@@ -11763,10 +11269,10 @@
         <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>4</v>
@@ -11774,19 +11280,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>13</v>
@@ -11794,19 +11300,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D35" s="2">
         <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>13</v>
@@ -11814,7 +11320,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>33</v>
@@ -11826,7 +11332,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>13</v>
@@ -11856,10 +11362,10 @@
         <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>4</v>
@@ -11867,19 +11373,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>13</v>
@@ -11887,7 +11393,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -11901,10 +11407,10 @@
         <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -11912,19 +11418,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>13</v>
@@ -11932,19 +11438,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D46" s="2">
         <v>2</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>13</v>
@@ -11952,7 +11458,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>33</v>
@@ -11964,7 +11470,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>13</v>
@@ -11980,7 +11486,7 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -11994,10 +11500,10 @@
         <v>3</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>4</v>
@@ -12005,19 +11511,19 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>13</v>
@@ -12039,10 +11545,10 @@
         <v>3</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>4</v>
@@ -12050,19 +11556,19 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>13</v>
@@ -12092,10 +11598,10 @@
         <v>3</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>4</v>
@@ -12103,19 +11609,19 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D60" s="2">
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>13</v>
@@ -12142,10 +11648,10 @@
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>4</v>
@@ -12153,19 +11659,19 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>13</v>
@@ -12173,19 +11679,19 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D66" s="1">
         <v>2</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>13</v>
@@ -12193,19 +11699,19 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D67" s="1">
         <v>3</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>13</v>
@@ -12240,10 +11746,10 @@
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>4</v>
@@ -12251,19 +11757,19 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>13</v>
@@ -12296,10 +11802,10 @@
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>4</v>
@@ -12307,19 +11813,19 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C75" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>13</v>
@@ -12327,19 +11833,19 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C76" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D76" s="1">
         <v>2</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>13</v>
@@ -12347,19 +11853,19 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D77" s="1">
         <v>3</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>13</v>
@@ -12394,10 +11900,10 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>4</v>
@@ -12405,19 +11911,19 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C81" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D81" s="1">
         <v>1</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>13</v>
@@ -12425,19 +11931,19 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C82" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D82" s="1">
         <v>2</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>13</v>
@@ -12445,19 +11951,19 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D83" s="1">
         <v>3</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>13</v>
@@ -12492,10 +11998,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>4</v>
@@ -12503,17 +12009,17 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1">
         <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>13</v>
@@ -12546,10 +12052,10 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>4</v>
@@ -12557,16 +12063,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D91" s="1">
         <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>13</v>
@@ -12600,10 +12106,10 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>4</v>
@@ -12611,16 +12117,16 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D95" s="1">
         <v>1</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>13</v>
@@ -12654,10 +12160,10 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>4</v>
@@ -12665,17 +12171,17 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1">
         <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>13</v>
@@ -12683,17 +12189,17 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1">
         <v>2</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>13</v>
@@ -12701,17 +12207,17 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1">
         <v>3</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>13</v>
@@ -12719,17 +12225,17 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1">
         <v>4</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>13</v>
@@ -12762,10 +12268,10 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>4</v>
@@ -12773,19 +12279,19 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D106" s="1">
         <v>1</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>13</v>
@@ -12793,19 +12299,19 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D107" s="1">
         <v>2</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>13</v>
@@ -12840,10 +12346,10 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>4</v>
@@ -12851,19 +12357,19 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D111" s="1">
         <v>1</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>13</v>
@@ -12871,19 +12377,19 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D112" s="1">
         <v>2</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>13</v>
@@ -12891,19 +12397,19 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D113" s="2">
         <v>3</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>13</v>
@@ -12944,10 +12450,10 @@
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>4</v>
@@ -12955,19 +12461,19 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D118" s="1">
         <v>1</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>13</v>
@@ -13002,10 +12508,10 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>4</v>
@@ -13013,19 +12519,19 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D122" s="1">
         <v>1</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>13</v>
@@ -13033,19 +12539,19 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D123" s="1">
         <v>2</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>13</v>
@@ -13053,19 +12559,19 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D124" s="1">
         <v>3</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>13</v>
@@ -13073,19 +12579,19 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D125" s="1">
         <v>4</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>13</v>
@@ -13112,10 +12618,10 @@
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>4</v>
@@ -13123,19 +12629,19 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D130" s="1">
         <v>1</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>13</v>
@@ -13162,10 +12668,10 @@
         <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>4</v>
@@ -13173,19 +12679,19 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D134" s="1">
         <v>1</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>13</v>
@@ -13193,19 +12699,19 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D135" s="1">
         <v>2</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>13</v>
@@ -13213,19 +12719,19 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D136" s="1">
         <v>3</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>13</v>
@@ -13268,10 +12774,10 @@
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>4</v>
@@ -13279,19 +12785,19 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D141" s="1">
         <v>1</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>13</v>
@@ -13334,10 +12840,10 @@
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>4</v>
@@ -13345,19 +12851,19 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D146" s="1">
         <v>1</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>13</v>
@@ -13400,10 +12906,10 @@
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>4</v>
@@ -13411,19 +12917,19 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D151" s="1">
         <v>1</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>13</v>
@@ -13431,19 +12937,19 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D152" s="1">
         <v>2</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>13</v>
@@ -13451,7 +12957,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="2"/>
@@ -13461,19 +12967,19 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>4</v>
@@ -13481,10 +12987,10 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>72</v>
@@ -13499,10 +13005,10 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>77</v>
@@ -13517,10 +13023,10 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>81</v>
@@ -13535,16 +13041,16 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1" t="s">
@@ -13553,10 +13059,10 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>85</v>
@@ -13589,19 +13095,19 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>4</v>
@@ -13609,10 +13115,10 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>72</v>
@@ -13627,10 +13133,10 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>89</v>
@@ -13645,10 +13151,10 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>108</v>
@@ -13663,10 +13169,10 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>112</v>
@@ -13681,10 +13187,10 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>116</v>
@@ -13699,10 +13205,10 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>77</v>
@@ -13717,10 +13223,10 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>81</v>
@@ -13735,10 +13241,10 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>85</v>
@@ -13753,10 +13259,10 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>120</v>
@@ -13943,10 +13449,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G212"/>
+  <dimension ref="A2:G182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="D217" sqref="D217"/>
+    <sheetView topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -13981,10 +13487,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
@@ -13993,19 +13499,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
@@ -14017,10 +13523,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -14032,13 +13538,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
@@ -14053,10 +13559,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
@@ -14068,13 +13574,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -14086,13 +13592,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
@@ -14104,13 +13610,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D10" s="2">
         <v>7</v>
@@ -14122,13 +13628,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D11" s="2">
         <v>8</v>
@@ -14140,13 +13646,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D12" s="2">
         <v>9</v>
@@ -14158,13 +13664,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D13" s="2">
         <v>10</v>
@@ -14176,13 +13682,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D14" s="2">
         <v>11</v>
@@ -14194,13 +13700,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D15" s="2">
         <v>12</v>
@@ -14212,13 +13718,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D16" s="2">
         <v>13</v>
@@ -14230,7 +13736,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>31</v>
@@ -14248,7 +13754,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>35</v>
@@ -14266,13 +13772,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D19" s="2">
         <v>16</v>
@@ -14284,13 +13790,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D20" s="2">
         <v>17</v>
@@ -14302,13 +13808,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D21" s="2">
         <v>18</v>
@@ -14320,13 +13826,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D22" s="2">
         <v>19</v>
@@ -14338,13 +13844,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D23" s="2">
         <v>20</v>
@@ -14356,13 +13862,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="D24" s="2">
         <v>21</v>
@@ -14374,13 +13880,13 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D25" s="2">
         <v>22</v>
@@ -14392,13 +13898,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D26" s="2">
         <v>23</v>
@@ -14429,10 +13935,10 @@
         <v>3</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>4</v>
@@ -14440,19 +13946,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>13</v>
@@ -14460,13 +13966,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D32" s="2">
         <v>2</v>
@@ -14478,13 +13984,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D33" s="2">
         <v>3</v>
@@ -14496,13 +14002,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D34" s="2">
         <v>4</v>
@@ -14541,10 +14047,10 @@
         <v>3</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>4</v>
@@ -14552,19 +14058,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>13</v>
@@ -14572,13 +14078,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
@@ -14590,13 +14096,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D40" s="2">
         <v>3</v>
@@ -14608,13 +14114,13 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D41" s="2">
         <v>4</v>
@@ -14653,10 +14159,10 @@
         <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -14664,19 +14170,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>13</v>
@@ -14684,13 +14190,13 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D46" s="2">
         <v>2</v>
@@ -14702,13 +14208,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D47" s="2">
         <v>3</v>
@@ -14720,13 +14226,13 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D48" s="2">
         <v>4</v>
@@ -14738,13 +14244,13 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D49" s="2">
         <v>5</v>
@@ -14756,13 +14262,13 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D50" s="2">
         <v>6</v>
@@ -14774,13 +14280,13 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D51" s="2">
         <v>7</v>
@@ -14827,10 +14333,10 @@
         <v>3</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>4</v>
@@ -14838,19 +14344,19 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>13</v>
@@ -14861,10 +14367,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D57" s="2">
         <v>2</v>
@@ -14876,13 +14382,13 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D58" s="2">
         <v>3</v>
@@ -14921,10 +14427,10 @@
         <v>3</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>4</v>
@@ -14932,19 +14438,19 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D62" s="2">
         <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>13</v>
@@ -14955,10 +14461,10 @@
         <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D63" s="2">
         <v>2</v>
@@ -14970,7 +14476,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>15</v>
@@ -14988,13 +14494,13 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D65" s="2">
         <v>4</v>
@@ -15006,13 +14512,13 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D66" s="2">
         <v>5</v>
@@ -15059,10 +14565,10 @@
         <v>3</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>4</v>
@@ -15070,19 +14576,19 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D71" s="2">
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>13</v>
@@ -15093,10 +14599,10 @@
         <v>1</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D72" s="2">
         <v>2</v>
@@ -15108,7 +14614,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>17</v>
@@ -15126,7 +14632,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>15</v>
@@ -15173,10 +14679,10 @@
         <v>3</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>4</v>
@@ -15184,19 +14690,19 @@
     </row>
     <row r="79" ht="15.75" spans="1:6">
       <c r="A79" s="11" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D79" s="12">
         <v>1</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F79" s="14" t="s">
         <v>13</v>
@@ -15204,13 +14710,13 @@
     </row>
     <row r="80" ht="15.75" spans="1:6">
       <c r="A80" s="11" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D80" s="12">
         <v>3</v>
@@ -15222,13 +14728,13 @@
     </row>
     <row r="81" ht="15.75" spans="1:6">
       <c r="A81" s="11" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D81" s="12">
         <v>6</v>
@@ -15240,13 +14746,13 @@
     </row>
     <row r="82" ht="15.75" spans="1:6">
       <c r="A82" s="15" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D82" s="15">
         <v>7</v>
@@ -15274,10 +14780,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>4</v>
@@ -15285,19 +14791,19 @@
     </row>
     <row r="87" ht="15.75" spans="1:6">
       <c r="A87" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B87" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C87" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F87" s="14" t="s">
         <v>131</v>
@@ -15305,13 +14811,13 @@
     </row>
     <row r="88" ht="15.75" spans="1:6">
       <c r="A88" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B88" t="s">
         <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -15322,13 +14828,13 @@
     </row>
     <row r="89" ht="15.75" spans="1:6">
       <c r="A89" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B89" t="s">
         <v>31</v>
       </c>
       <c r="C89" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D89">
         <v>3</v>
@@ -15339,13 +14845,13 @@
     </row>
     <row r="90" ht="15.75" spans="1:6">
       <c r="A90" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B90" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C90" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D90">
         <v>4</v>
@@ -15356,13 +14862,13 @@
     </row>
     <row r="91" ht="15.75" spans="1:6">
       <c r="A91" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B91" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C91" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D91">
         <v>5</v>
@@ -15392,10 +14898,10 @@
         <v>3</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>4</v>
@@ -15403,19 +14909,19 @@
     </row>
     <row r="96" ht="15.75" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D96" s="12">
         <v>1</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F96" s="14" t="s">
         <v>13</v>
@@ -15423,13 +14929,13 @@
     </row>
     <row r="97" ht="15.75" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D97" s="12">
         <v>2</v>
@@ -15441,13 +14947,13 @@
     </row>
     <row r="98" ht="15.75" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D98" s="12">
         <v>3</v>
@@ -15459,13 +14965,13 @@
     </row>
     <row r="99" ht="15.75" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D99" s="12">
         <v>4</v>
@@ -15477,13 +14983,13 @@
     </row>
     <row r="100" ht="15.75" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D100" s="12">
         <v>5</v>
@@ -15495,13 +15001,13 @@
     </row>
     <row r="101" ht="15.75" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D101" s="12">
         <v>6</v>
@@ -15513,13 +15019,13 @@
     </row>
     <row r="102" ht="15.75" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D102" s="12">
         <v>7</v>
@@ -15531,13 +15037,13 @@
     </row>
     <row r="103" ht="15.75" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D103" s="12">
         <v>8</v>
@@ -15549,13 +15055,13 @@
     </row>
     <row r="104" ht="15.75" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D104" s="12">
         <v>9</v>
@@ -15567,13 +15073,13 @@
     </row>
     <row r="105" ht="15.75" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D105" s="12">
         <v>10</v>
@@ -15585,13 +15091,13 @@
     </row>
     <row r="106" ht="15.75" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D106" s="12">
         <v>11</v>
@@ -15603,13 +15109,13 @@
     </row>
     <row r="107" ht="15.75" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D107" s="12">
         <v>12</v>
@@ -15621,13 +15127,13 @@
     </row>
     <row r="108" ht="15.75" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D108" s="12">
         <v>13</v>
@@ -15639,13 +15145,13 @@
     </row>
     <row r="109" ht="15.75" spans="1:6">
       <c r="A109" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D109" s="12">
         <v>14</v>
@@ -15657,13 +15163,13 @@
     </row>
     <row r="110" ht="15.75" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D110" s="12">
         <v>15</v>
@@ -15675,13 +15181,13 @@
     </row>
     <row r="111" ht="15.75" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D111" s="12">
         <v>16</v>
@@ -15693,13 +15199,13 @@
     </row>
     <row r="112" ht="15.75" spans="1:6">
       <c r="A112" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D112" s="12">
         <v>17</v>
@@ -15711,13 +15217,13 @@
     </row>
     <row r="113" ht="15.75" spans="1:6">
       <c r="A113" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D113" s="12">
         <v>18</v>
@@ -15729,13 +15235,13 @@
     </row>
     <row r="114" ht="15.75" spans="1:6">
       <c r="A114" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D114" s="12">
         <v>19</v>
@@ -15747,13 +15253,13 @@
     </row>
     <row r="115" ht="15.75" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D115" s="12">
         <v>20</v>
@@ -15765,13 +15271,13 @@
     </row>
     <row r="116" ht="15.75" spans="1:6">
       <c r="A116" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D116" s="12">
         <v>21</v>
@@ -15783,13 +15289,13 @@
     </row>
     <row r="117" ht="15.75" spans="1:6">
       <c r="A117" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D117" s="12">
         <v>22</v>
@@ -15801,13 +15307,13 @@
     </row>
     <row r="118" ht="15.75" spans="1:6">
       <c r="A118" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D118" s="12">
         <v>23</v>
@@ -15819,13 +15325,13 @@
     </row>
     <row r="119" ht="15.75" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D119" s="12">
         <v>24</v>
@@ -15837,13 +15343,13 @@
     </row>
     <row r="120" ht="15.75" spans="1:6">
       <c r="A120" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D120" s="12">
         <v>25</v>
@@ -15855,13 +15361,13 @@
     </row>
     <row r="121" ht="15.75" spans="1:6">
       <c r="A121" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D121" s="12">
         <v>26</v>
@@ -15873,13 +15379,13 @@
     </row>
     <row r="122" ht="15.75" spans="1:6">
       <c r="A122" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D122" s="12">
         <v>27</v>
@@ -15891,13 +15397,13 @@
     </row>
     <row r="123" ht="15.75" spans="1:6">
       <c r="A123" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D123" s="12">
         <v>28</v>
@@ -15909,13 +15415,13 @@
     </row>
     <row r="124" ht="15.75" spans="1:6">
       <c r="A124" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D124" s="12">
         <v>29</v>
@@ -15927,13 +15433,13 @@
     </row>
     <row r="125" ht="15.75" spans="1:6">
       <c r="A125" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D125" s="12">
         <v>30</v>
@@ -15945,13 +15451,13 @@
     </row>
     <row r="126" ht="15.75" spans="1:6">
       <c r="A126" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D126" s="12">
         <v>31</v>
@@ -15963,13 +15469,13 @@
     </row>
     <row r="127" ht="15.75" spans="1:6">
       <c r="A127" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D127" s="12">
         <v>32</v>
@@ -15981,13 +15487,13 @@
     </row>
     <row r="128" ht="15.75" spans="1:6">
       <c r="A128" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D128" s="12">
         <v>33</v>
@@ -15999,13 +15505,13 @@
     </row>
     <row r="129" ht="15.75" spans="1:6">
       <c r="A129" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D129" s="12">
         <v>34</v>
@@ -16017,13 +15523,13 @@
     </row>
     <row r="130" ht="15.75" spans="1:6">
       <c r="A130" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D130" s="12">
         <v>35</v>
@@ -16035,13 +15541,13 @@
     </row>
     <row r="131" ht="15.75" spans="1:6">
       <c r="A131" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D131" s="12">
         <v>36</v>
@@ -16053,13 +15559,13 @@
     </row>
     <row r="132" ht="15.75" spans="1:6">
       <c r="A132" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D132" s="12">
         <v>37</v>
@@ -16071,13 +15577,13 @@
     </row>
     <row r="133" ht="15.75" spans="1:6">
       <c r="A133" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D133" s="12">
         <v>38</v>
@@ -16089,13 +15595,13 @@
     </row>
     <row r="134" ht="15.75" spans="1:6">
       <c r="A134" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D134" s="12">
         <v>39</v>
@@ -16107,13 +15613,13 @@
     </row>
     <row r="135" ht="15.75" spans="1:6">
       <c r="A135" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D135" s="12">
         <v>40</v>
@@ -16125,13 +15631,13 @@
     </row>
     <row r="136" ht="15.75" spans="1:6">
       <c r="A136" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D136" s="12">
         <v>41</v>
@@ -16143,13 +15649,13 @@
     </row>
     <row r="137" ht="15.75" spans="1:6">
       <c r="A137" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D137" s="12">
         <v>42</v>
@@ -16161,13 +15667,13 @@
     </row>
     <row r="138" ht="15.75" spans="1:6">
       <c r="A138" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D138" s="12">
         <v>43</v>
@@ -16179,13 +15685,13 @@
     </row>
     <row r="139" ht="15.75" spans="1:6">
       <c r="A139" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D139" s="12">
         <v>44</v>
@@ -16197,13 +15703,13 @@
     </row>
     <row r="140" ht="15.75" spans="1:6">
       <c r="A140" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D140" s="12">
         <v>45</v>
@@ -16215,13 +15721,13 @@
     </row>
     <row r="141" ht="15.75" spans="1:6">
       <c r="A141" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D141" s="12">
         <v>46</v>
@@ -16233,13 +15739,13 @@
     </row>
     <row r="142" ht="15.75" spans="1:6">
       <c r="A142" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D142" s="12">
         <v>47</v>
@@ -16251,13 +15757,13 @@
     </row>
     <row r="143" ht="15.75" spans="1:6">
       <c r="A143" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D143" s="12">
         <v>48</v>
@@ -16269,13 +15775,13 @@
     </row>
     <row r="144" ht="15.75" spans="1:6">
       <c r="A144" s="1" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D144" s="12">
         <v>49</v>
@@ -16287,13 +15793,13 @@
     </row>
     <row r="145" ht="15.75" spans="1:6">
       <c r="A145" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D145" s="12">
         <v>50</v>
@@ -16305,13 +15811,13 @@
     </row>
     <row r="146" ht="15.75" spans="1:6">
       <c r="A146" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D146" s="12">
         <v>51</v>
@@ -16323,13 +15829,13 @@
     </row>
     <row r="147" ht="15.75" spans="1:6">
       <c r="A147" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D147" s="12">
         <v>52</v>
@@ -16341,13 +15847,13 @@
     </row>
     <row r="148" ht="15.75" spans="1:6">
       <c r="A148" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D148" s="12">
         <v>53</v>
@@ -16359,13 +15865,13 @@
     </row>
     <row r="149" ht="15.75" spans="1:6">
       <c r="A149" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D149" s="12">
         <v>54</v>
@@ -16377,13 +15883,13 @@
     </row>
     <row r="150" ht="15.75" spans="1:6">
       <c r="A150" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D150" s="12">
         <v>55</v>
@@ -16414,10 +15920,10 @@
         <v>3</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F154" s="17" t="s">
         <v>4</v>
@@ -16425,7 +15931,7 @@
     </row>
     <row r="155" ht="15.75" spans="1:6">
       <c r="A155" s="17" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B155" s="17" t="s">
         <v>144</v>
@@ -16437,7 +15943,7 @@
         <v>1</v>
       </c>
       <c r="E155" s="17" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F155" s="17" t="s">
         <v>13</v>
@@ -16448,10 +15954,10 @@
         <v>42</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D156" s="18">
         <v>2</v>
@@ -16498,10 +16004,10 @@
         <v>3</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E160" s="17" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F160" s="17" t="s">
         <v>4</v>
@@ -16509,19 +16015,19 @@
     </row>
     <row r="161" ht="15.75" spans="1:6">
       <c r="A161" s="17" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B161" s="17" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D161" s="18">
         <v>1</v>
       </c>
       <c r="E161" s="17" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F161" s="17" t="s">
         <v>13</v>
@@ -16529,13 +16035,13 @@
     </row>
     <row r="162" ht="15.75" spans="1:6">
       <c r="A162" s="17" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B162" s="17" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D162" s="18">
         <v>2</v>
@@ -16547,13 +16053,13 @@
     </row>
     <row r="163" ht="15.75" spans="1:6">
       <c r="A163" s="17" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B163" s="17" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D163" s="18">
         <v>3</v>
@@ -16565,13 +16071,13 @@
     </row>
     <row r="164" ht="15.75" spans="1:6">
       <c r="A164" s="17" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B164" s="17" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D164" s="18">
         <v>4</v>
@@ -16583,13 +16089,13 @@
     </row>
     <row r="165" ht="15.75" spans="1:6">
       <c r="A165" s="17" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B165" s="17" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D165" s="18">
         <v>5</v>
@@ -16601,13 +16107,13 @@
     </row>
     <row r="166" ht="15.75" spans="1:6">
       <c r="A166" s="17" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B166" s="17" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D166" s="18">
         <v>6</v>
@@ -16618,13 +16124,13 @@
     </row>
     <row r="167" ht="15.75" spans="1:6">
       <c r="A167" s="17" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B167" s="17" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D167" s="18">
         <v>7</v>
@@ -16634,561 +16140,186 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="1" t="s">
+    <row r="168" ht="15.75" spans="1:6">
+      <c r="A168" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="B168" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="D168" s="18">
+        <v>8</v>
+      </c>
+      <c r="E168" s="17"/>
+      <c r="F168" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" spans="1:6">
+      <c r="A169" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="B169" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="D169" s="18">
+        <v>9</v>
+      </c>
+      <c r="E169" s="17"/>
+      <c r="F169" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" ht="15.75" spans="1:6">
+      <c r="A170" s="17"/>
+      <c r="B170" s="17"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="17"/>
+      <c r="E170" s="17"/>
+      <c r="F170" s="17"/>
+    </row>
+    <row r="171" ht="15.75" spans="1:6">
+      <c r="A171" s="17"/>
+      <c r="B171" s="17"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="17"/>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B170" s="20"/>
-      <c r="C170" s="20"/>
-      <c r="D170" s="20"/>
-      <c r="E170" s="20"/>
-      <c r="F170" s="20"/>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="21" t="s">
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20"/>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B171" s="21" t="s">
+      <c r="B174" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C171" s="21" t="s">
+      <c r="C174" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D171" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="E171" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="F171" s="21" t="s">
+      <c r="D174" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E174" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F174" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="172" ht="15.75" spans="1:6">
-      <c r="A172" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B172" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D172" s="1">
+    <row r="175" ht="15.75" spans="1:6">
+      <c r="A175" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B175" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D175" s="1">
         <v>1</v>
       </c>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" ht="16.5" spans="1:6">
-      <c r="A173" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D173" s="1">
+      <c r="E175" s="1"/>
+      <c r="F175" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" ht="16.5" spans="1:6">
+      <c r="A176" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D176" s="1">
         <v>2</v>
       </c>
-      <c r="E173" s="22"/>
-      <c r="F173" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C174" t="s">
-        <v>411</v>
-      </c>
-      <c r="D174" s="1">
-        <v>3</v>
-      </c>
-      <c r="F174" s="1" t="s">
+      <c r="E176" s="22"/>
+      <c r="F176" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
-      <c r="D177" s="20"/>
-      <c r="E177" s="20"/>
-      <c r="F177" s="20"/>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C178" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C177" t="s">
+        <v>408</v>
+      </c>
+      <c r="D177" s="1">
         <v>3</v>
       </c>
-      <c r="D178" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="E178" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="F178" s="21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D179" s="1">
-        <v>1</v>
-      </c>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1" t="s">
+      <c r="F177" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D180" s="1">
+        <v>136</v>
+      </c>
+      <c r="B180" s="20"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20"/>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B181" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" ht="16.5" spans="1:6">
-      <c r="A181" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D181" s="1">
+      <c r="C181" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E181" s="22"/>
-      <c r="F181" s="1" t="s">
-        <v>13</v>
+      <c r="D181" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E181" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F181" s="21" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B182" t="s">
-        <v>422</v>
-      </c>
-      <c r="C182" t="s">
-        <v>423</v>
+        <v>409</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="D182" s="1">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E182" s="1"/>
       <c r="F182" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C183" t="s">
-        <v>425</v>
-      </c>
-      <c r="D183" s="1">
-        <v>5</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C184" t="s">
-        <v>427</v>
-      </c>
-      <c r="D184" s="1">
-        <v>6</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189" t="s">
-        <v>1</v>
-      </c>
-      <c r="B189" t="s">
-        <v>2</v>
-      </c>
-      <c r="C189" t="s">
-        <v>3</v>
-      </c>
-      <c r="D189" t="s">
-        <v>153</v>
-      </c>
-      <c r="E189" t="s">
-        <v>154</v>
-      </c>
-      <c r="F189" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190" t="s">
-        <v>428</v>
-      </c>
-      <c r="B190" t="s">
-        <v>156</v>
-      </c>
-      <c r="C190" t="s">
-        <v>429</v>
-      </c>
-      <c r="D190">
-        <v>1</v>
-      </c>
-      <c r="F190" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" ht="16.5" spans="1:6">
-      <c r="A191" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D191" s="1">
-        <v>2</v>
-      </c>
-      <c r="E191" s="22"/>
-      <c r="F191" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B194" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C194" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D194" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="E194" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="F194" s="21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D195" s="1">
-        <v>1</v>
-      </c>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="196" ht="16.5" spans="1:6">
-      <c r="A196" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D196" s="1">
-        <v>2</v>
-      </c>
-      <c r="E196" s="22"/>
-      <c r="F196" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B199" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C199" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D199" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="E199" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="F199" s="21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D200" s="1">
-        <v>1</v>
-      </c>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="201" ht="16.5" spans="1:6">
-      <c r="A201" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D201" s="1">
-        <v>2</v>
-      </c>
-      <c r="E201" s="22"/>
-      <c r="F201" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="204" ht="15.75" spans="1:6">
-      <c r="A204" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B204" s="17"/>
-      <c r="C204" s="17"/>
-      <c r="D204" s="17"/>
-      <c r="E204" s="17"/>
-      <c r="F204" s="17"/>
-    </row>
-    <row r="205" ht="15.75" spans="1:6">
-      <c r="A205" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B205" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C205" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D205" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E205" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F205" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="206" ht="15.75" spans="1:6">
-      <c r="A206" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="B206" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C206" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="D206" s="17">
-        <v>1</v>
-      </c>
-      <c r="E206" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="F206" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="207" ht="15.75" spans="1:6">
-      <c r="A207" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="B207" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C207" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="D207" s="17">
-        <v>2</v>
-      </c>
-      <c r="E207" s="17"/>
-      <c r="F207" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" ht="15.75" spans="1:6">
-      <c r="A208" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="B208" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C208" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="D208" s="17">
-        <v>3</v>
-      </c>
-      <c r="E208" s="17"/>
-      <c r="F208" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="209" ht="15.75" spans="1:6">
-      <c r="A209" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="B209" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C209" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D209" s="17">
-        <v>4</v>
-      </c>
-      <c r="E209" s="17"/>
-      <c r="F209" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="210" ht="15.75" spans="1:6">
-      <c r="A210" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="B210" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C210" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="D210" s="17">
-        <v>5</v>
-      </c>
-      <c r="E210" s="17"/>
-      <c r="F210" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="211" ht="15.75" spans="1:6">
-      <c r="A211" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="B211" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C211" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="D211" s="17">
-        <v>6</v>
-      </c>
-      <c r="E211" s="17"/>
-      <c r="F211" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="212" ht="15.75" spans="1:6">
-      <c r="A212" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="B212" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C212" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="D212" s="17">
-        <v>7</v>
-      </c>
-      <c r="E212" s="17"/>
-      <c r="F212" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -17232,7 +16363,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <tableParts count="18">
+  <tableParts count="14">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -17247,10 +16378,6 @@
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
     <tablePart r:id="rId14"/>
-    <tablePart r:id="rId15"/>
-    <tablePart r:id="rId16"/>
-    <tablePart r:id="rId17"/>
-    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
@@ -17287,7 +16414,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -17318,10 +16445,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
@@ -17329,13 +16456,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -17347,13 +16474,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -17365,13 +16492,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
@@ -17383,13 +16510,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
@@ -17401,13 +16528,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="D10" s="2">
         <v>4</v>
@@ -17419,13 +16546,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
@@ -17437,13 +16564,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="D12" s="2">
         <v>6</v>
@@ -17455,13 +16582,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="D13" s="2">
         <v>7</v>
@@ -17473,13 +16600,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="D14" s="2">
         <v>8</v>
@@ -17528,10 +16655,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>4</v>
@@ -17539,13 +16666,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -17557,13 +16684,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -17575,13 +16702,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
@@ -17630,10 +16757,10 @@
         <v>3</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>4</v>
@@ -17641,13 +16768,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -17659,13 +16786,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -17677,13 +16804,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="D28" s="2">
         <v>2</v>
@@ -17732,10 +16859,10 @@
         <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>4</v>
@@ -17743,13 +16870,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -17761,13 +16888,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -17816,10 +16943,10 @@
         <v>3</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>4</v>
@@ -17827,13 +16954,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -17845,13 +16972,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -17900,10 +17027,10 @@
         <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -17911,13 +17038,13 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="D45" s="2">
         <v>0</v>
@@ -17929,13 +17056,13 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
@@ -17947,7 +17074,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -17976,10 +17103,10 @@
         <v>3</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>4</v>
@@ -17987,13 +17114,13 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="D52" s="2">
         <v>0</v>
@@ -18005,13 +17132,13 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="D53" s="2">
         <v>1</v>
@@ -18023,13 +17150,13 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="D54" s="2">
         <v>2</v>
@@ -18041,13 +17168,13 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="D55" s="2">
         <v>3</v>
@@ -18059,13 +17186,13 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="D56" s="2">
         <v>4</v>
@@ -18114,10 +17241,10 @@
         <v>3</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>4</v>
@@ -18125,13 +17252,13 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="D61" s="2">
         <v>0</v>
@@ -18143,13 +17270,13 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="D62" s="2">
         <v>1</v>
@@ -18161,13 +17288,13 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="D63" s="2">
         <v>100</v>
@@ -18179,13 +17306,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="D64" s="2">
         <v>101</v>
@@ -18242,10 +17369,10 @@
         <v>3</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>4</v>
@@ -18253,13 +17380,13 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="4" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="D70" s="2">
         <v>0</v>
@@ -18271,13 +17398,13 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="4" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="D71" s="2">
         <v>1</v>
@@ -18289,13 +17416,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="D72" s="2">
         <v>2</v>
@@ -18307,13 +17434,13 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="4" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="D73" s="2">
         <v>3</v>
@@ -18325,13 +17452,13 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="4" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="D74" s="2">
         <v>4</v>
@@ -18343,13 +17470,13 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="4" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="D75" s="2">
         <v>5</v>
@@ -18361,13 +17488,13 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="D76" s="2">
         <v>6</v>
@@ -18424,10 +17551,10 @@
         <v>3</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>4</v>
@@ -18435,13 +17562,13 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
@@ -18453,13 +17580,13 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
@@ -18508,10 +17635,10 @@
         <v>3</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>4</v>
@@ -18519,13 +17646,13 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="5" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="D88" s="2">
         <v>0</v>
@@ -18537,13 +17664,13 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="D89" s="1">
         <v>1</v>
@@ -18571,7 +17698,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -18600,10 +17727,10 @@
         <v>3</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>4</v>
@@ -18611,13 +17738,13 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="5" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="D95" s="2">
         <v>0</v>
@@ -18629,13 +17756,13 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="D96" s="2">
         <v>1</v>
@@ -18647,13 +17774,13 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="D97" s="2">
         <v>2</v>
@@ -18665,13 +17792,13 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="D98" s="2">
         <v>3</v>
@@ -18683,13 +17810,13 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="D99" s="2">
         <v>4</v>
@@ -18701,13 +17828,13 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="D100" s="2">
         <v>5</v>
@@ -18719,13 +17846,13 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="D101" s="2">
         <v>6</v>
@@ -18737,13 +17864,13 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="D102" s="2">
         <v>7</v>
@@ -18755,13 +17882,13 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="D103" s="2">
         <v>8</v>
@@ -18773,13 +17900,13 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="D104" s="2">
         <v>9</v>
@@ -18791,10 +17918,10 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>128</v>
@@ -18809,13 +17936,13 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="D106" s="2">
         <v>11</v>
@@ -18827,13 +17954,13 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>546</v>
+        <v>516</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>547</v>
+        <v>517</v>
       </c>
       <c r="D107" s="2">
         <v>12</v>
@@ -18845,13 +17972,13 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>548</v>
+        <v>518</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>549</v>
+        <v>519</v>
       </c>
       <c r="D108" s="2">
         <v>13</v>
@@ -18879,7 +18006,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -18908,10 +18035,10 @@
         <v>3</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>4</v>
@@ -18919,13 +18046,13 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="5" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>551</v>
+        <v>521</v>
       </c>
       <c r="D114" s="2">
         <v>0</v>
@@ -18937,13 +18064,13 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="D115" s="1">
         <v>1</v>
@@ -18982,10 +18109,10 @@
         <v>3</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>4</v>
@@ -18993,19 +18120,19 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
       <c r="D121" s="2">
         <v>1</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>13</v>
@@ -19013,13 +18140,13 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
       <c r="D122" s="2">
         <v>2</v>
@@ -19031,13 +18158,13 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D123" s="2">
         <v>3</v>
@@ -19049,13 +18176,13 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="D124" s="2">
         <v>4</v>
@@ -19078,7 +18205,7 @@
         <v>44</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>559</v>
+        <v>529</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -19096,10 +18223,10 @@
         <v>3</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>4</v>
@@ -19107,13 +18234,13 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="D130" s="2">
         <v>1</v>
@@ -19136,7 +18263,7 @@
         <v>42</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -19154,10 +18281,10 @@
         <v>3</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>4</v>
@@ -19165,7 +18292,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>39</v>
@@ -19177,7 +18304,7 @@
         <v>1</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>13</v>
@@ -19199,10 +18326,10 @@
         <v>3</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>4</v>
@@ -19210,13 +18337,13 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1" t="s">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="D140" s="2">
         <v>0</v>
@@ -19228,13 +18355,13 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="D141" s="2">
         <v>1</v>
@@ -19246,13 +18373,13 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="D142" s="2">
         <v>2</v>
@@ -19283,10 +18410,10 @@
         <v>3</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>4</v>
@@ -19294,13 +18421,13 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
-        <v>571</v>
+        <v>541</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="D147" s="2">
         <v>0</v>
@@ -19312,13 +18439,13 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="D148" s="2">
         <v>1</v>
@@ -19330,13 +18457,13 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="D149" s="2">
         <v>2</v>
@@ -19348,13 +18475,13 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
       <c r="D150" s="2">
         <v>3</v>
@@ -19385,10 +18512,10 @@
         <v>3</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>4</v>
@@ -19396,13 +18523,13 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="D156" s="2">
         <v>0</v>
@@ -19414,13 +18541,13 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="D157" s="2">
         <v>1</v>
@@ -19432,13 +18559,13 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>582</v>
+        <v>552</v>
       </c>
       <c r="D158" s="2">
         <v>2</v>
@@ -19450,13 +18577,13 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1" t="s">
-        <v>583</v>
+        <v>553</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
       <c r="D159" s="2">
         <v>3</v>
@@ -19468,13 +18595,13 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1" t="s">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C160" t="s">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="D160" s="2">
         <v>4</v>
@@ -19485,13 +18612,13 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1" t="s">
-        <v>587</v>
+        <v>557</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C161" t="s">
-        <v>588</v>
+        <v>558</v>
       </c>
       <c r="D161" s="2">
         <v>5</v>
@@ -19502,13 +18629,13 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1" t="s">
-        <v>589</v>
+        <v>559</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C162" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="D162" s="2">
         <v>6</v>
@@ -19519,13 +18646,13 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1" t="s">
-        <v>591</v>
+        <v>561</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C163" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="D163" s="2">
         <v>7</v>
@@ -19536,13 +18663,13 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C164" t="s">
-        <v>594</v>
+        <v>564</v>
       </c>
       <c r="D164" s="2">
         <v>8</v>

--- a/Data/Entities/OpenNGS/OpenNGS.Item.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="561">
   <si>
     <t>Package</t>
   </si>
@@ -1288,18 +1288,6 @@
   </si>
   <si>
     <t>索引</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>道具等级</t>
-  </si>
-  <si>
-    <t>PromotionLevel</t>
-  </si>
-  <si>
-    <t>道具升阶等级</t>
   </si>
   <si>
     <t>栏位ID</t>
@@ -8574,8 +8562,8 @@
 </file>
 
 <file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="ItemSaveState" displayName="ItemSaveState" ref="A160:F169" totalsRowShown="0">
-  <autoFilter ref="A160:F169"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="ItemSaveState" displayName="ItemSaveState" ref="A160:F167" totalsRowShown="0">
+  <autoFilter ref="A160:F167"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="241"/>
     <tableColumn id="2" name="Type" dataDxfId="242"/>
@@ -8589,8 +8577,8 @@
 </file>
 
 <file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="55" name="ItemContainer" displayName="ItemContainer" ref="A181:F182" totalsRowShown="0">
-  <autoFilter ref="A181:F182"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="55" name="ItemContainer" displayName="ItemContainer" ref="A178:F179" totalsRowShown="0">
+  <autoFilter ref="A178:F179"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="247"/>
     <tableColumn id="2" name="Type" dataDxfId="248"/>
@@ -8604,8 +8592,8 @@
 </file>
 
 <file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="ItemColumn" displayName="ItemColumn" ref="A174:F177" totalsRowShown="0">
-  <autoFilter ref="A174:F177"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="ItemColumn" displayName="ItemColumn" ref="A171:F174" totalsRowShown="0">
+  <autoFilter ref="A171:F174"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Type"/>
@@ -9253,7 +9241,7 @@
   <sheetPr/>
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
@@ -13449,10 +13437,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G182"/>
+  <dimension ref="A2:G179"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -16141,185 +16129,141 @@
       </c>
     </row>
     <row r="168" ht="15.75" spans="1:6">
-      <c r="A168" s="17" t="s">
+      <c r="A168" s="17"/>
+      <c r="B168" s="17"/>
+      <c r="C168" s="17"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="17"/>
+      <c r="F168" s="17"/>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B170" s="20"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="20"/>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D171" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E171" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F171" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" spans="1:6">
+      <c r="A172" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B172" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B168" s="17" t="s">
+      <c r="D172" s="1">
+        <v>1</v>
+      </c>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" ht="16.5" spans="1:6">
+      <c r="A173" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D173" s="1">
+        <v>2</v>
+      </c>
+      <c r="E173" s="22"/>
+      <c r="F173" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C168" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="D168" s="18">
-        <v>8</v>
-      </c>
-      <c r="E168" s="17"/>
-      <c r="F168" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" ht="15.75" spans="1:6">
-      <c r="A169" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="B169" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C169" s="17" t="s">
+      <c r="C174" t="s">
         <v>404</v>
       </c>
-      <c r="D169" s="18">
-        <v>9</v>
-      </c>
-      <c r="E169" s="17"/>
-      <c r="F169" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" ht="15.75" spans="1:6">
-      <c r="A170" s="17"/>
-      <c r="B170" s="17"/>
-      <c r="C170" s="17"/>
-      <c r="D170" s="17"/>
-      <c r="E170" s="17"/>
-      <c r="F170" s="17"/>
-    </row>
-    <row r="171" ht="15.75" spans="1:6">
-      <c r="A171" s="17"/>
-      <c r="B171" s="17"/>
-      <c r="C171" s="17"/>
-      <c r="D171" s="17"/>
-      <c r="E171" s="17"/>
-      <c r="F171" s="17"/>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B173" s="20"/>
-      <c r="C173" s="20"/>
-      <c r="D173" s="20"/>
-      <c r="E173" s="20"/>
-      <c r="F173" s="20"/>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B174" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C174" s="21" t="s">
+      <c r="D174" s="1">
         <v>3</v>
       </c>
-      <c r="D174" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E174" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="F174" s="21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" ht="15.75" spans="1:6">
-      <c r="A175" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B175" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D175" s="1">
-        <v>1</v>
-      </c>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" ht="16.5" spans="1:6">
-      <c r="A176" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D176" s="1">
-        <v>2</v>
-      </c>
-      <c r="E176" s="22"/>
-      <c r="F176" s="1" t="s">
+      <c r="F174" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="20"/>
+      <c r="F177" s="20"/>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C178" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D178" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E178" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F178" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C177" t="s">
-        <v>408</v>
-      </c>
-      <c r="D177" s="1">
-        <v>3</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B180" s="20"/>
-      <c r="C180" s="20"/>
-      <c r="D180" s="20"/>
-      <c r="E180" s="20"/>
-      <c r="F180" s="20"/>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181" s="21" t="s">
+      <c r="D179" s="1">
         <v>1</v>
       </c>
-      <c r="B181" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C181" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D181" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E181" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="F181" s="21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="D182" s="1">
-        <v>1</v>
-      </c>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1" t="s">
+      <c r="E179" s="1"/>
+      <c r="F179" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16414,7 +16358,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -16456,13 +16400,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -16474,13 +16418,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -16492,13 +16436,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
@@ -16510,13 +16454,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
@@ -16528,13 +16472,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D10" s="2">
         <v>4</v>
@@ -16546,13 +16490,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
@@ -16564,13 +16508,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D12" s="2">
         <v>6</v>
@@ -16582,13 +16526,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D13" s="2">
         <v>7</v>
@@ -16600,13 +16544,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D14" s="2">
         <v>8</v>
@@ -16666,13 +16610,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -16684,13 +16628,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -16702,13 +16646,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
@@ -16768,13 +16712,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -16786,13 +16730,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -16804,13 +16748,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D28" s="2">
         <v>2</v>
@@ -16870,13 +16814,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -16888,13 +16832,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -16954,13 +16898,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -16972,13 +16916,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -17038,13 +16982,13 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D45" s="2">
         <v>0</v>
@@ -17056,13 +17000,13 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
@@ -17074,7 +17018,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -17114,13 +17058,13 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D52" s="2">
         <v>0</v>
@@ -17132,13 +17076,13 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D53" s="2">
         <v>1</v>
@@ -17150,13 +17094,13 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D54" s="2">
         <v>2</v>
@@ -17168,13 +17112,13 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D55" s="2">
         <v>3</v>
@@ -17186,13 +17130,13 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D56" s="2">
         <v>4</v>
@@ -17252,13 +17196,13 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D61" s="2">
         <v>0</v>
@@ -17270,13 +17214,13 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D62" s="2">
         <v>1</v>
@@ -17288,13 +17232,13 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D63" s="2">
         <v>100</v>
@@ -17306,13 +17250,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D64" s="2">
         <v>101</v>
@@ -17380,13 +17324,13 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="4" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D70" s="2">
         <v>0</v>
@@ -17398,13 +17342,13 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="4" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D71" s="2">
         <v>1</v>
@@ -17416,13 +17360,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D72" s="2">
         <v>2</v>
@@ -17434,13 +17378,13 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="4" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D73" s="2">
         <v>3</v>
@@ -17452,13 +17396,13 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="4" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D74" s="2">
         <v>4</v>
@@ -17470,13 +17414,13 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="4" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D75" s="2">
         <v>5</v>
@@ -17488,13 +17432,13 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D76" s="2">
         <v>6</v>
@@ -17562,13 +17506,13 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
@@ -17580,13 +17524,13 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
@@ -17646,13 +17590,13 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D88" s="2">
         <v>0</v>
@@ -17664,13 +17608,13 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D89" s="1">
         <v>1</v>
@@ -17698,7 +17642,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -17738,13 +17682,13 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D95" s="2">
         <v>0</v>
@@ -17756,13 +17700,13 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D96" s="2">
         <v>1</v>
@@ -17774,13 +17718,13 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D97" s="2">
         <v>2</v>
@@ -17792,13 +17736,13 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D98" s="2">
         <v>3</v>
@@ -17810,13 +17754,13 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D99" s="2">
         <v>4</v>
@@ -17828,13 +17772,13 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D100" s="2">
         <v>5</v>
@@ -17846,13 +17790,13 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D101" s="2">
         <v>6</v>
@@ -17864,13 +17808,13 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D102" s="2">
         <v>7</v>
@@ -17882,13 +17826,13 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D103" s="2">
         <v>8</v>
@@ -17900,13 +17844,13 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D104" s="2">
         <v>9</v>
@@ -17918,7 +17862,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>149</v>
@@ -17936,13 +17880,13 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D106" s="2">
         <v>11</v>
@@ -17954,13 +17898,13 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D107" s="2">
         <v>12</v>
@@ -17972,13 +17916,13 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D108" s="2">
         <v>13</v>
@@ -18046,13 +17990,13 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D114" s="2">
         <v>0</v>
@@ -18064,13 +18008,13 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D115" s="1">
         <v>1</v>
@@ -18120,13 +18064,13 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D121" s="2">
         <v>1</v>
@@ -18146,7 +18090,7 @@
         <v>149</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D122" s="2">
         <v>2</v>
@@ -18179,10 +18123,10 @@
         <v>147</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D124" s="2">
         <v>4</v>
@@ -18205,7 +18149,7 @@
         <v>44</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -18234,13 +18178,13 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D130" s="2">
         <v>1</v>
@@ -18263,7 +18207,7 @@
         <v>42</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -18292,7 +18236,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>39</v>
@@ -18304,7 +18248,7 @@
         <v>1</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>13</v>
@@ -18337,13 +18281,13 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D140" s="2">
         <v>0</v>
@@ -18355,13 +18299,13 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D141" s="2">
         <v>1</v>
@@ -18373,13 +18317,13 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D142" s="2">
         <v>2</v>
@@ -18421,13 +18365,13 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D147" s="2">
         <v>0</v>
@@ -18439,13 +18383,13 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D148" s="2">
         <v>1</v>
@@ -18457,13 +18401,13 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D149" s="2">
         <v>2</v>
@@ -18475,13 +18419,13 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D150" s="2">
         <v>3</v>
@@ -18523,13 +18467,13 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D156" s="2">
         <v>0</v>
@@ -18541,13 +18485,13 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D157" s="2">
         <v>1</v>
@@ -18559,13 +18503,13 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D158" s="2">
         <v>2</v>
@@ -18577,13 +18521,13 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D159" s="2">
         <v>3</v>
@@ -18595,13 +18539,13 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C160" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D160" s="2">
         <v>4</v>
@@ -18612,13 +18556,13 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C161" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D161" s="2">
         <v>5</v>
@@ -18629,13 +18573,13 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C162" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D162" s="2">
         <v>6</v>
@@ -18646,13 +18590,13 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C163" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D163" s="2">
         <v>7</v>
@@ -18663,13 +18607,13 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C164" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D164" s="2">
         <v>8</v>

--- a/Data/Entities/OpenNGS/OpenNGS.Item.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="565">
   <si>
     <t>Package</t>
   </si>
@@ -1633,6 +1633,18 @@
   </si>
   <si>
     <t>遗物</t>
+  </si>
+  <si>
+    <t>ITEM_KIND_CHIP_ATTRIBUTE</t>
+  </si>
+  <si>
+    <t>属性芯片</t>
+  </si>
+  <si>
+    <t>ITEM_KIND_CHIP_SKILL</t>
+  </si>
+  <si>
+    <t>技能芯片</t>
   </si>
   <si>
     <t>ITEM_INVISIBLE</t>
@@ -8005,7 +8017,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Entities" displayName="Entities" ref="A1:I61" totalsRowShown="0">
-  <autoFilter ref="A1:I61"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I61" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="9">
     <tableColumn id="9" name="Package" dataDxfId="0"/>
     <tableColumn id="1" name="Name" dataDxfId="1"/>
@@ -8023,7 +8035,7 @@
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="PlaceItemRsp" displayName="PlaceItemRsp" ref="A39:F40" totalsRowShown="0">
-  <autoFilter ref="A39:F40"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A39:F40" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="58"/>
     <tableColumn id="2" name="Type" dataDxfId="59"/>
@@ -8038,7 +8050,7 @@
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="ReplaceItemReq" displayName="ReplaceItemReq" ref="A44:F47" totalsRowShown="0">
-  <autoFilter ref="A44:F47"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A44:F47" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="64"/>
     <tableColumn id="2" name="Type" dataDxfId="65"/>
@@ -8053,7 +8065,7 @@
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="ReplaceItemRsp" displayName="ReplaceItemRsp" ref="A50:F51" totalsRowShown="0">
-  <autoFilter ref="A50:F51"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A50:F51" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="70"/>
     <tableColumn id="2" name="Type" dataDxfId="71"/>
@@ -8068,7 +8080,7 @@
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="ReplaceItemsReq" displayName="ReplaceItemsReq" ref="A55:F56" totalsRowShown="0">
-  <autoFilter ref="A55:F56"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A55:F56" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="76"/>
     <tableColumn id="2" name="Type" dataDxfId="77"/>
@@ -8083,7 +8095,7 @@
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="ReplaceItemsRsp" displayName="ReplaceItemsRsp" ref="A59:F60" totalsRowShown="0">
-  <autoFilter ref="A59:F60"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A59:F60" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="82"/>
     <tableColumn id="2" name="Type" dataDxfId="83"/>
@@ -8098,7 +8110,7 @@
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="NiItemService" displayName="NiItemService" ref="A168:F177" totalsRowShown="0">
-  <autoFilter ref="A168:F177"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A168:F177" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="MethodName" dataDxfId="88"/>
     <tableColumn id="3" name="Description" dataDxfId="89"/>
@@ -8113,7 +8125,7 @@
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="AddItemReq" displayName="AddItemReq" ref="A64:F67" totalsRowShown="0">
-  <autoFilter ref="A64:F67"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A64:F67" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="94"/>
     <tableColumn id="2" name="Type" dataDxfId="95"/>
@@ -8128,7 +8140,7 @@
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="AddItemRsp" displayName="AddItemRsp" ref="A70:F71" totalsRowShown="0">
-  <autoFilter ref="A70:F71"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A70:F71" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="100"/>
     <tableColumn id="2" name="Type" dataDxfId="101"/>
@@ -8143,7 +8155,7 @@
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="IdCountPair" displayName="IdCountPair" ref="A105:F107" totalsRowShown="0">
-  <autoFilter ref="A105:F107"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A105:F107" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="106"/>
     <tableColumn id="2" name="Type" dataDxfId="107"/>
@@ -8158,7 +8170,7 @@
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="AddItemsReq" displayName="AddItemsReq" ref="A110:F113" totalsRowShown="0">
-  <autoFilter ref="A110:F113"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A110:F113" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="112"/>
     <tableColumn id="2" name="Type" dataDxfId="113"/>
@@ -8173,7 +8185,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ItemRecord" displayName="ItemRecord" ref="A5:F8" totalsRowShown="0">
-  <autoFilter ref="A5:F8"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A5:F8" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="9"/>
     <tableColumn id="2" name="Type" dataDxfId="10"/>
@@ -8188,7 +8200,7 @@
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="AddItemsRsp" displayName="AddItemsRsp" ref="A117:F118" totalsRowShown="0">
-  <autoFilter ref="A117:F118"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A117:F118" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="118"/>
     <tableColumn id="2" name="Type" dataDxfId="119"/>
@@ -8203,7 +8215,7 @@
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="DeleteItemReq" displayName="DeleteItemReq" ref="A121:F125" totalsRowShown="0">
-  <autoFilter ref="A121:F125"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A121:F125" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="124"/>
     <tableColumn id="2" name="Type" dataDxfId="125"/>
@@ -8218,7 +8230,7 @@
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="DeleteItemRsp" displayName="DeleteItemRsp" ref="A129:F130" totalsRowShown="0">
-  <autoFilter ref="A129:F130"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A129:F130" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="130"/>
     <tableColumn id="2" name="Type" dataDxfId="131"/>
@@ -8233,7 +8245,7 @@
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="GetItemDataReq" displayName="GetItemDataReq" ref="A133:F136" totalsRowShown="0">
-  <autoFilter ref="A133:F136"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A133:F136" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="136"/>
     <tableColumn id="2" name="Type" dataDxfId="137"/>
@@ -8248,7 +8260,7 @@
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="GetItemDataRsp" displayName="GetItemDataRsp" ref="A140:F141" totalsRowShown="0">
-  <autoFilter ref="A140:F141"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A140:F141" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="142"/>
     <tableColumn id="2" name="Type" dataDxfId="143"/>
@@ -8263,7 +8275,7 @@
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="UnpackReq" displayName="UnpackReq" ref="A145:F146" totalsRowShown="0">
-  <autoFilter ref="A145:F146"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A145:F146" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="148"/>
     <tableColumn id="2" name="Type" dataDxfId="149"/>
@@ -8278,7 +8290,7 @@
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="UnpackRsp" displayName="UnpackRsp" ref="A150:F152" totalsRowShown="0">
-  <autoFilter ref="A150:F152"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A150:F152" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="154"/>
     <tableColumn id="2" name="Type" dataDxfId="155"/>
@@ -8293,7 +8305,7 @@
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="64" name="ChangeItemData" displayName="ChangeItemData" ref="A98:F102" totalsRowShown="0">
-  <autoFilter ref="A98:F102"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A98:F102" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="160"/>
     <tableColumn id="2" name="Type" dataDxfId="161"/>
@@ -8308,7 +8320,7 @@
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="65" name="RemoveItemReq" displayName="RemoveItemReq" ref="A74:F77" totalsRowShown="0">
-  <autoFilter ref="A74:F77"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A74:F77" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="164"/>
     <tableColumn id="2" name="Type" dataDxfId="165"/>
@@ -8323,7 +8335,7 @@
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="68" name="AddReq" displayName="AddReq" ref="A86:F87" totalsRowShown="0">
-  <autoFilter ref="A86:F87"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A86:F87" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="170"/>
     <tableColumn id="2" name="Type" dataDxfId="171"/>
@@ -8338,7 +8350,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="ItemService" displayName="ItemService" ref="A158:F163" totalsRowShown="0">
-  <autoFilter ref="A158:F163"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A158:F163" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="MethodName" dataDxfId="16"/>
     <tableColumn id="3" name="Description" dataDxfId="17"/>
@@ -8353,7 +8365,7 @@
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="69" name="RemoveItemsByGridsReq" displayName="RemoveItemsByGridsReq" ref="A90:F91" totalsRowShown="0">
-  <autoFilter ref="A90:F91"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A90:F91" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="176"/>
     <tableColumn id="2" name="Type" dataDxfId="177"/>
@@ -8368,7 +8380,7 @@
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="66" name="RemoveItemByIDReq" displayName="RemoveItemByIDReq" ref="A80:F83" totalsRowShown="0">
-  <autoFilter ref="A80:F83"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A80:F83" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="182"/>
     <tableColumn id="2" name="Type" dataDxfId="183"/>
@@ -8383,7 +8395,7 @@
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="67" name="RemoveItemsByIDsReq" displayName="RemoveItemsByIDsReq" ref="A94:F95" totalsRowShown="0">
-  <autoFilter ref="A94:F95"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A94:F95" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="188"/>
     <tableColumn id="2" name="Type" dataDxfId="189"/>
@@ -8398,7 +8410,7 @@
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Item" displayName="Item" ref="A3:F26" totalsRowShown="0">
-  <autoFilter ref="A3:F26"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F26" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="193"/>
     <tableColumn id="2" name="Type" dataDxfId="194"/>
@@ -8413,7 +8425,7 @@
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ItemPack" displayName="ItemPack" ref="A30:F34" totalsRowShown="0">
-  <autoFilter ref="A30:F34"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A30:F34" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="199"/>
     <tableColumn id="2" name="Type" dataDxfId="200"/>
@@ -8428,7 +8440,7 @@
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ItemPackProb" displayName="ItemPackProb" ref="A44:F51" totalsRowShown="0">
-  <autoFilter ref="A44:F51"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A44:F51" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="205"/>
     <tableColumn id="2" name="Type" dataDxfId="206"/>
@@ -8443,7 +8455,7 @@
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="ItemCategory" displayName="ItemCategory" ref="A55:F58" totalsRowShown="0">
-  <autoFilter ref="A55:F58"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A55:F58" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="211"/>
     <tableColumn id="2" name="Type" dataDxfId="212"/>
@@ -8458,7 +8470,7 @@
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ItemTypeMapping" displayName="ItemTypeMapping" ref="A61:F66" totalsRowShown="0">
-  <autoFilter ref="A61:F66"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A61:F66" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="217"/>
     <tableColumn id="2" name="Type" dataDxfId="218"/>
@@ -8473,7 +8485,7 @@
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ItemKindMapping" displayName="ItemKindMapping" ref="A70:F74" totalsRowShown="0">
-  <autoFilter ref="A70:F74"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A70:F74" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="223"/>
     <tableColumn id="2" name="Type" dataDxfId="224"/>
@@ -8488,7 +8500,7 @@
 
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ItemPackGroup" displayName="ItemPackGroup" ref="A37:F41" totalsRowShown="0">
-  <autoFilter ref="A37:F41"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A37:F41" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="229"/>
     <tableColumn id="2" name="Type" dataDxfId="230"/>
@@ -8503,7 +8515,7 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="GetItemsReq" displayName="GetItemsReq" ref="A10:F14" totalsRowShown="0">
-  <autoFilter ref="A10:F14"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A10:F14" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="22"/>
     <tableColumn id="2" name="Type" dataDxfId="23"/>
@@ -8518,7 +8530,7 @@
 
 <file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="MakeDesign" displayName="MakeDesign" ref="A78:F82" totalsRowShown="0">
-  <autoFilter ref="A78:F82"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A78:F82" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Type"/>
@@ -8533,7 +8545,7 @@
 
 <file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="ComposeCostInfo" displayName="ComposeCostInfo" ref="A86:F91" totalsRowShown="0">
-  <autoFilter ref="A86:F91"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A86:F91" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Type"/>
@@ -8548,7 +8560,7 @@
 
 <file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="53" name="EquipStats" displayName="EquipStats" ref="A95:F150" totalsRowShown="0">
-  <autoFilter ref="A95:F150"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A95:F150" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="235"/>
     <tableColumn id="2" name="Type" dataDxfId="236"/>
@@ -8563,7 +8575,7 @@
 
 <file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="ItemSaveState" displayName="ItemSaveState" ref="A160:F167" totalsRowShown="0">
-  <autoFilter ref="A160:F167"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A160:F167" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="241"/>
     <tableColumn id="2" name="Type" dataDxfId="242"/>
@@ -8578,7 +8590,7 @@
 
 <file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="55" name="ItemContainer" displayName="ItemContainer" ref="A178:F179" totalsRowShown="0">
-  <autoFilter ref="A178:F179"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A178:F179" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="247"/>
     <tableColumn id="2" name="Type" dataDxfId="248"/>
@@ -8593,7 +8605,7 @@
 
 <file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="ItemColumn" displayName="ItemColumn" ref="A171:F174" totalsRowShown="0">
-  <autoFilter ref="A171:F174"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A171:F174" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Type"/>
@@ -8608,7 +8620,7 @@
 
 <file path=xl/tables/table46.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="63" name="ItemResult" displayName="ItemResult" ref="A154:F156" totalsRowShown="0">
-  <autoFilter ref="A154:F156"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A154:F156" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Type"/>
@@ -8623,7 +8635,7 @@
 
 <file path=xl/tables/table47.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="ITEM_CATEGORY" displayName="ITEM_CATEGORY" ref="A5:F14" totalsRowShown="0">
-  <autoFilter ref="A5:F14"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A5:F14" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="251"/>
     <tableColumn id="2" name="Type" dataDxfId="252"/>
@@ -8638,7 +8650,7 @@
 
 <file path=xl/tables/table48.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="ITEM_PACK_CATEGORY" displayName="ITEM_PACK_CATEGORY" ref="A32:F34" totalsRowShown="0">
-  <autoFilter ref="A32:F34"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A32:F34" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="257"/>
     <tableColumn id="2" name="Type" dataDxfId="258"/>
@@ -8653,7 +8665,7 @@
 
 <file path=xl/tables/table49.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="ITEM_PACK_RANDOM_TYPE" displayName="ITEM_PACK_RANDOM_TYPE" ref="A38:F40" totalsRowShown="0">
-  <autoFilter ref="A38:F40"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A38:F40" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="263"/>
     <tableColumn id="2" name="Type" dataDxfId="264"/>
@@ -8668,7 +8680,7 @@
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="GetItemsRsp" displayName="GetItemsRsp" ref="A17:F18" totalsRowShown="0">
-  <autoFilter ref="A17:F18"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A17:F18" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="28"/>
     <tableColumn id="2" name="Type" dataDxfId="29"/>
@@ -8683,7 +8695,7 @@
 
 <file path=xl/tables/table50.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="ITEM_USE_TIME_TYPE" displayName="ITEM_USE_TIME_TYPE" ref="A44:F46" totalsRowShown="0">
-  <autoFilter ref="A44:F46"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A44:F46" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="269"/>
     <tableColumn id="2" name="Type" dataDxfId="270"/>
@@ -8698,7 +8710,7 @@
 
 <file path=xl/tables/table51.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="ITEM_EXPIRY_TYPE" displayName="ITEM_EXPIRY_TYPE" ref="A18:F21" totalsRowShown="0">
-  <autoFilter ref="A18:F21"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A18:F21" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="275"/>
     <tableColumn id="2" name="Type" dataDxfId="276"/>
@@ -8713,7 +8725,7 @@
 
 <file path=xl/tables/table52.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="ITEM_USAGE_TYPE" displayName="ITEM_USAGE_TYPE" ref="A25:F28" totalsRowShown="0">
-  <autoFilter ref="A25:F28"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A25:F28" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="281"/>
     <tableColumn id="2" name="Type" dataDxfId="282"/>
@@ -8728,7 +8740,7 @@
 
 <file path=xl/tables/table53.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="ITEM_TYPE" displayName="ITEM_TYPE" ref="A51:F56" totalsRowShown="0">
-  <autoFilter ref="A51:F56"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A51:F56" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="287"/>
     <tableColumn id="2" name="Type" dataDxfId="288"/>
@@ -8743,7 +8755,7 @@
 
 <file path=xl/tables/table54.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="ITEM_ATTRIBUTE" displayName="ITEM_ATTRIBUTE" ref="A60:F64" totalsRowShown="0">
-  <autoFilter ref="A60:F64"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A60:F64" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="293"/>
     <tableColumn id="2" name="Type" dataDxfId="294"/>
@@ -8758,7 +8770,7 @@
 
 <file path=xl/tables/table55.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="ITEM_RARITY_TYPE" displayName="ITEM_RARITY_TYPE" ref="A69:F76" totalsRowShown="0">
-  <autoFilter ref="A69:F76"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A69:F76" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="299"/>
     <tableColumn id="2" name="Type" dataDxfId="300"/>
@@ -8773,7 +8785,7 @@
 
 <file path=xl/tables/table56.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="ITEM_PLACE_TYPE" displayName="ITEM_PLACE_TYPE" ref="A87:F89" totalsRowShown="0">
-  <autoFilter ref="A87:F89"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A87:F89" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="305"/>
     <tableColumn id="2" name="Type" dataDxfId="306"/>
@@ -8787,8 +8799,8 @@
 </file>
 
 <file path=xl/tables/table57.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="ITEM_KIND" displayName="ITEM_KIND" ref="A94:F108" totalsRowShown="0">
-  <autoFilter ref="A94:F108"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="ITEM_KIND" displayName="ITEM_KIND" ref="A94:F110" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A94:F110" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="311"/>
     <tableColumn id="2" name="Type" dataDxfId="312"/>
@@ -8803,7 +8815,7 @@
 
 <file path=xl/tables/table58.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="ITEM_PLACE_EXPIRATION" displayName="ITEM_PLACE_EXPIRATION" ref="A81:F83" totalsRowShown="0">
-  <autoFilter ref="A81:F83"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A81:F83" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="317"/>
     <tableColumn id="2" name="Type" dataDxfId="318"/>
@@ -8817,8 +8829,8 @@
 </file>
 
 <file path=xl/tables/table59.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="ITEM_VISIBILITY_TYPE" displayName="ITEM_VISIBILITY_TYPE" ref="A113:F115" totalsRowShown="0">
-  <autoFilter ref="A113:F115"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="ITEM_VISIBILITY_TYPE" displayName="ITEM_VISIBILITY_TYPE" ref="A115:F117" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A115:F117" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="323"/>
     <tableColumn id="2" name="Type" dataDxfId="324"/>
@@ -8833,7 +8845,7 @@
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="UseItemReq" displayName="UseItemReq" ref="A22:F24" totalsRowShown="0">
-  <autoFilter ref="A22:F24"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A22:F24" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="34"/>
     <tableColumn id="2" name="Type" dataDxfId="35"/>
@@ -8847,8 +8859,8 @@
 </file>
 
 <file path=xl/tables/table60.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="ItemData" displayName="ItemData" ref="A120:F124" totalsRowShown="0">
-  <autoFilter ref="A120:F124"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="ItemData" displayName="ItemData" ref="A122:F126" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A122:F126" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="329"/>
     <tableColumn id="2" name="Type" dataDxfId="330"/>
@@ -8862,8 +8874,8 @@
 </file>
 
 <file path=xl/tables/table61.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="ItemList" displayName="ItemList" ref="A135:F136" totalsRowShown="0">
-  <autoFilter ref="A135:F136"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="ItemList" displayName="ItemList" ref="A137:F138" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A137:F138" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="335"/>
     <tableColumn id="2" name="Type" dataDxfId="336"/>
@@ -8877,8 +8889,8 @@
 </file>
 
 <file path=xl/tables/table62.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="ItemSet" displayName="ItemSet" ref="A129:F130" totalsRowShown="0">
-  <autoFilter ref="A129:F130"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="ItemSet" displayName="ItemSet" ref="A131:F132" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A131:F132" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="341"/>
     <tableColumn id="2" name="Type" dataDxfId="342"/>
@@ -8892,8 +8904,8 @@
 </file>
 
 <file path=xl/tables/table63.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="EQUIP_RESULT_TYPE" displayName="EQUIP_RESULT_TYPE" ref="A139:F142" totalsRowShown="0">
-  <autoFilter ref="A139:F142"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="EQUIP_RESULT_TYPE" displayName="EQUIP_RESULT_TYPE" ref="A141:F144" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A141:F144" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Type"/>
@@ -8907,8 +8919,8 @@
 </file>
 
 <file path=xl/tables/table64.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="NUMBER_FORMAT" displayName="NUMBER_FORMAT" ref="A146:F150" totalsRowShown="0">
-  <autoFilter ref="A146:F150"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="NUMBER_FORMAT" displayName="NUMBER_FORMAT" ref="A148:F152" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A148:F152" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="347"/>
     <tableColumn id="2" name="Type" dataDxfId="348"/>
@@ -8922,8 +8934,8 @@
 </file>
 
 <file path=xl/tables/table65.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="ItemResultType" displayName="ItemResultType" ref="A155:F164" totalsRowShown="0">
-  <autoFilter ref="A155:F164"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="ItemResultType" displayName="ItemResultType" ref="A157:F166" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A157:F166" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Type"/>
@@ -8938,7 +8950,7 @@
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="UseItemRsp" displayName="UseItemRsp" ref="A27:F29" totalsRowShown="0">
-  <autoFilter ref="A27:F29"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A27:F29" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="40"/>
     <tableColumn id="2" name="Type" dataDxfId="41"/>
@@ -8953,7 +8965,7 @@
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="BlindboxDrawMode" displayName="BlindboxDrawMode" ref="A5:F7" totalsRowShown="0">
-  <autoFilter ref="A5:F7"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A5:F7" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="46"/>
     <tableColumn id="2" name="Type" dataDxfId="47"/>
@@ -8968,7 +8980,7 @@
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="PlaceItemReq" displayName="PlaceItemReq" ref="A33:F36" totalsRowShown="0">
-  <autoFilter ref="A33:F36"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A33:F36" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="52"/>
     <tableColumn id="2" name="Type" dataDxfId="53"/>
@@ -13439,8 +13451,8 @@
   <sheetPr/>
   <dimension ref="A2:G179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -16329,10 +16341,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G164"/>
+  <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="K95" sqref="K95"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -17933,25 +17945,43 @@
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="2"/>
+      <c r="A109" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D109" s="2">
+        <v>14</v>
+      </c>
       <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="2"/>
+      <c r="A110" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D110" s="2">
+        <v>15</v>
+      </c>
       <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
+      <c r="F110" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="1" t="s">
-        <v>263</v>
-      </c>
+      <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="2"/>
@@ -17959,9 +17989,7 @@
       <c r="F111" s="1"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="2"/>
@@ -17970,166 +17998,150 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D114" s="2">
-        <v>0</v>
-      </c>
+      <c r="A114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="2"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F114" s="1"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>518</v>
+        <v>1</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="D115" s="1">
+      <c r="C116" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D117" s="1">
         <v>1</v>
       </c>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D121" s="2">
-        <v>1</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="1"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
-        <v>179</v>
+        <v>1</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D122" s="2">
-        <v>2</v>
-      </c>
-      <c r="E122" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="F122" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
-        <v>398</v>
+        <v>524</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>182</v>
+        <v>525</v>
       </c>
       <c r="D123" s="2">
-        <v>3</v>
-      </c>
-      <c r="E123" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="F123" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>523</v>
+        <v>149</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D124" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
@@ -18137,280 +18149,280 @@
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="1"/>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C129" s="1" t="s">
+      <c r="A125" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D125" s="2">
         <v>3</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E129" s="1" t="s">
+      <c r="E125" s="1"/>
+      <c r="F125" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="B126" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D126" s="2">
         <v>4</v>
       </c>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="1"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1" t="s">
-        <v>526</v>
+        <v>44</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D130" s="2">
+        <v>529</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="1"/>
+      <c r="B131" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D132" s="2">
+        <v>1</v>
+      </c>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="1"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
-        <v>530</v>
+        <v>42</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D138" s="2">
         <v>1</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+      <c r="E138" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D140" s="2">
-        <v>0</v>
-      </c>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
-        <v>533</v>
+        <v>1</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="D141" s="2">
-        <v>1</v>
-      </c>
-      <c r="E141" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="F141" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>536</v>
+        <v>410</v>
       </c>
       <c r="D142" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="1" t="s">
+    <row r="143" spans="1:6">
+      <c r="A143" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D143" s="2">
         <v>1</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="E143" s="1"/>
+      <c r="F143" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D144" s="2">
         <v>2</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>4</v>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D147" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="2"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F147" s="1"/>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
-        <v>538</v>
+        <v>1</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D148" s="2">
-        <v>1</v>
-      </c>
-      <c r="E148" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="F148" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D149" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
@@ -18428,91 +18440,91 @@
         <v>543</v>
       </c>
       <c r="D150" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B155" s="1" t="s">
+    <row r="151" spans="1:6">
+      <c r="A151" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D151" s="2">
         <v>2</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="E151" s="1"/>
+      <c r="F151" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D152" s="2">
         <v>3</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>4</v>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D156" s="2">
-        <v>0</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="2"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F156" s="1"/>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1" t="s">
-        <v>545</v>
+        <v>1</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="D157" s="2">
-        <v>1</v>
-      </c>
-      <c r="E157" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="F157" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>548</v>
+        <v>410</v>
       </c>
       <c r="D158" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1" t="s">
@@ -18530,7 +18542,7 @@
         <v>550</v>
       </c>
       <c r="D159" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1" t="s">
@@ -18544,12 +18556,13 @@
       <c r="B160" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="1" t="s">
         <v>552</v>
       </c>
       <c r="D160" s="2">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E160" s="1"/>
       <c r="F160" s="1" t="s">
         <v>13</v>
       </c>
@@ -18561,12 +18574,13 @@
       <c r="B161" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="1" t="s">
         <v>554</v>
       </c>
       <c r="D161" s="2">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E161" s="1"/>
       <c r="F161" s="1" t="s">
         <v>13</v>
       </c>
@@ -18582,7 +18596,7 @@
         <v>556</v>
       </c>
       <c r="D162" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>13</v>
@@ -18599,7 +18613,7 @@
         <v>558</v>
       </c>
       <c r="D163" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>13</v>
@@ -18616,29 +18630,63 @@
         <v>560</v>
       </c>
       <c r="D164" s="2">
+        <v>6</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C165" t="s">
+        <v>562</v>
+      </c>
+      <c r="D165" s="2">
+        <v>7</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C166" t="s">
+        <v>564</v>
+      </c>
+      <c r="D166" s="2">
         <v>8</v>
       </c>
-      <c r="F164" s="1" t="s">
+      <c r="F166" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D130">
+  <conditionalFormatting sqref="D132">
     <cfRule type="duplicateValues" dxfId="15" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D136">
+  <conditionalFormatting sqref="D138">
     <cfRule type="duplicateValues" dxfId="15" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D140">
+  <conditionalFormatting sqref="D142">
     <cfRule type="duplicateValues" dxfId="15" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D141">
+  <conditionalFormatting sqref="D143">
     <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D142">
+  <conditionalFormatting sqref="D144">
     <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D121:D124">
+  <conditionalFormatting sqref="D123:D126">
     <cfRule type="duplicateValues" dxfId="15" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Entities/OpenNGS/OpenNGS.Item.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Item.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="561">
   <si>
     <t>Package</t>
   </si>
@@ -1633,18 +1633,6 @@
   </si>
   <si>
     <t>遗物</t>
-  </si>
-  <si>
-    <t>ITEM_KIND_CHIP_ATTRIBUTE</t>
-  </si>
-  <si>
-    <t>属性芯片</t>
-  </si>
-  <si>
-    <t>ITEM_KIND_CHIP_SKILL</t>
-  </si>
-  <si>
-    <t>技能芯片</t>
   </si>
   <si>
     <t>ITEM_INVISIBLE</t>
@@ -8799,8 +8787,8 @@
 </file>
 
 <file path=xl/tables/table57.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="ITEM_KIND" displayName="ITEM_KIND" ref="A94:F110" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A94:F110" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="ITEM_KIND" displayName="ITEM_KIND" ref="A94:F108" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A94:F108" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="311"/>
     <tableColumn id="2" name="Type" dataDxfId="312"/>
@@ -8829,8 +8817,8 @@
 </file>
 
 <file path=xl/tables/table59.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="ITEM_VISIBILITY_TYPE" displayName="ITEM_VISIBILITY_TYPE" ref="A115:F117" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A115:F117" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="ITEM_VISIBILITY_TYPE" displayName="ITEM_VISIBILITY_TYPE" ref="A112:F114" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A112:F114" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="323"/>
     <tableColumn id="2" name="Type" dataDxfId="324"/>
@@ -8859,8 +8847,8 @@
 </file>
 
 <file path=xl/tables/table60.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="ItemData" displayName="ItemData" ref="A122:F126" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A122:F126" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="ItemData" displayName="ItemData" ref="A119:F123" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A119:F123" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="329"/>
     <tableColumn id="2" name="Type" dataDxfId="330"/>
@@ -8874,8 +8862,8 @@
 </file>
 
 <file path=xl/tables/table61.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="ItemList" displayName="ItemList" ref="A137:F138" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A137:F138" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="ItemList" displayName="ItemList" ref="A134:F135" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A134:F135" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="335"/>
     <tableColumn id="2" name="Type" dataDxfId="336"/>
@@ -8889,8 +8877,8 @@
 </file>
 
 <file path=xl/tables/table62.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="ItemSet" displayName="ItemSet" ref="A131:F132" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A131:F132" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="ItemSet" displayName="ItemSet" ref="A128:F129" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A128:F129" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="341"/>
     <tableColumn id="2" name="Type" dataDxfId="342"/>
@@ -8904,8 +8892,8 @@
 </file>
 
 <file path=xl/tables/table63.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="EQUIP_RESULT_TYPE" displayName="EQUIP_RESULT_TYPE" ref="A141:F144" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A141:F144" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="EQUIP_RESULT_TYPE" displayName="EQUIP_RESULT_TYPE" ref="A138:F141" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A138:F141" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Type"/>
@@ -8919,8 +8907,8 @@
 </file>
 
 <file path=xl/tables/table64.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="NUMBER_FORMAT" displayName="NUMBER_FORMAT" ref="A148:F152" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A148:F152" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="NUMBER_FORMAT" displayName="NUMBER_FORMAT" ref="A145:F149" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A145:F149" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="347"/>
     <tableColumn id="2" name="Type" dataDxfId="348"/>
@@ -8934,8 +8922,8 @@
 </file>
 
 <file path=xl/tables/table65.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="ItemResultType" displayName="ItemResultType" ref="A157:F166" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A157:F166" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="ItemResultType" displayName="ItemResultType" ref="A154:F163" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A154:F163" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Type"/>
@@ -9253,8 +9241,8 @@
   <sheetPr/>
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -10861,7 +10849,7 @@
   <sheetPr/>
   <dimension ref="A4:F177"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
+    <sheetView topLeftCell="A126" workbookViewId="0">
       <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
@@ -13451,8 +13439,8 @@
   <sheetPr/>
   <dimension ref="A2:G179"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -13775,7 +13763,7 @@
         <v>166</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>261</v>
@@ -16341,10 +16329,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G166"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -17945,43 +17933,27 @@
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D109" s="2">
-        <v>14</v>
-      </c>
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="2"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F109" s="1"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="D110" s="2">
-        <v>15</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="2"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F110" s="1"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="2"/>
@@ -17989,542 +17961,568 @@
       <c r="F111" s="1"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
+      <c r="A112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="2"/>
+      <c r="A113" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0</v>
+      </c>
       <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
+      <c r="F113" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1</v>
+      </c>
       <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
+      <c r="F114" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D116" s="2">
-        <v>0</v>
-      </c>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="D117" s="1">
-        <v>1</v>
-      </c>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="1"/>
+      <c r="A118" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
+      <c r="E118" s="2"/>
       <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D120" s="2">
+        <v>1</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D121" s="2">
+        <v>2</v>
+      </c>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
-        <v>1</v>
+        <v>398</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>2</v>
+        <v>149</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D122" s="2">
         <v>3</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C123" s="1" t="s">
+      <c r="D123" s="2">
+        <v>4</v>
+      </c>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="D123" s="2">
-        <v>1</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="D124" s="2">
-        <v>2</v>
-      </c>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D125" s="2">
-        <v>3</v>
-      </c>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D126" s="2">
-        <v>4</v>
-      </c>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="2"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B130" s="1" t="s">
+    <row r="128" spans="1:6">
+      <c r="A128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D129" s="2">
+        <v>1</v>
+      </c>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1" t="s">
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1" t="s">
+    <row r="135" spans="1:6">
+      <c r="A135" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B135" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D135" s="2">
+        <v>1</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D132" s="2">
-        <v>1</v>
-      </c>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>4</v>
+      <c r="F135" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D139" s="2">
+        <v>0</v>
+      </c>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D138" s="2">
+      <c r="D140" s="2">
         <v>1</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
-        <v>132</v>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D141" s="2">
         <v>2</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="E141" s="1"/>
       <c r="F141" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D142" s="2">
-        <v>0</v>
-      </c>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D143" s="2">
-        <v>1</v>
-      </c>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="B144" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D144" s="2">
-        <v>2</v>
-      </c>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1" t="s">
+      <c r="C146" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0</v>
+      </c>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="2"/>
+        <v>538</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D147" s="2">
+        <v>1</v>
+      </c>
       <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
+      <c r="F147" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
-        <v>1</v>
+        <v>540</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D148" s="2">
         <v>2</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="E148" s="1"/>
       <c r="F148" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>410</v>
+        <v>543</v>
       </c>
       <c r="D149" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B150" s="1" t="s">
+    <row r="153" spans="1:6">
+      <c r="A153" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="D150" s="2">
-        <v>1</v>
-      </c>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D151" s="2">
-        <v>2</v>
-      </c>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D152" s="2">
-        <v>3</v>
-      </c>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1" t="s">
+      <c r="C155" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D155" s="2">
+        <v>0</v>
+      </c>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D156" s="2">
+        <v>1</v>
+      </c>
       <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
+      <c r="F156" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1" t="s">
-        <v>1</v>
+        <v>547</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D157" s="2">
         <v>2</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="E157" s="1"/>
       <c r="F157" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>410</v>
+        <v>550</v>
       </c>
       <c r="D158" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1" t="s">
@@ -18533,70 +18531,67 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>550</v>
+      <c r="C159" t="s">
+        <v>552</v>
       </c>
       <c r="D159" s="2">
-        <v>1</v>
-      </c>
-      <c r="E159" s="1"/>
+        <v>4</v>
+      </c>
       <c r="F159" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>552</v>
+      <c r="C160" t="s">
+        <v>554</v>
       </c>
       <c r="D160" s="2">
-        <v>2</v>
-      </c>
-      <c r="E160" s="1"/>
+        <v>5</v>
+      </c>
       <c r="F160" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>554</v>
+      <c r="C161" t="s">
+        <v>556</v>
       </c>
       <c r="D161" s="2">
-        <v>3</v>
-      </c>
-      <c r="E161" s="1"/>
+        <v>6</v>
+      </c>
       <c r="F161" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C162" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D162" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>13</v>
@@ -18604,89 +18599,38 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C163" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D163" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C164" t="s">
-        <v>560</v>
-      </c>
-      <c r="D164" s="2">
-        <v>6</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C165" t="s">
-        <v>562</v>
-      </c>
-      <c r="D165" s="2">
-        <v>7</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C166" t="s">
-        <v>564</v>
-      </c>
-      <c r="D166" s="2">
-        <v>8</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="D132">
+  <conditionalFormatting sqref="D129">
     <cfRule type="duplicateValues" dxfId="15" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D138">
+  <conditionalFormatting sqref="D135">
     <cfRule type="duplicateValues" dxfId="15" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D142">
+  <conditionalFormatting sqref="D139">
     <cfRule type="duplicateValues" dxfId="15" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D143">
+  <conditionalFormatting sqref="D140">
     <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D144">
+  <conditionalFormatting sqref="D141">
     <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D123:D126">
+  <conditionalFormatting sqref="D120:D123">
     <cfRule type="duplicateValues" dxfId="15" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Entities/OpenNGS/OpenNGS.Item.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Item.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="565">
   <si>
     <t>Package</t>
   </si>
@@ -1633,6 +1633,18 @@
   </si>
   <si>
     <t>遗物</t>
+  </si>
+  <si>
+    <t>ITEM_KIND_CHIP_ATTRIBUTE</t>
+  </si>
+  <si>
+    <t>属性芯片</t>
+  </si>
+  <si>
+    <t>ITEM_KIND_CHIP_SKILL</t>
+  </si>
+  <si>
+    <t>技能芯片</t>
   </si>
   <si>
     <t>ITEM_INVISIBLE</t>
@@ -8787,8 +8799,8 @@
 </file>
 
 <file path=xl/tables/table57.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="ITEM_KIND" displayName="ITEM_KIND" ref="A94:F108" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A94:F108" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="ITEM_KIND" displayName="ITEM_KIND" ref="A94:F110" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A94:F110" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="311"/>
     <tableColumn id="2" name="Type" dataDxfId="312"/>
@@ -8817,8 +8829,8 @@
 </file>
 
 <file path=xl/tables/table59.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="ITEM_VISIBILITY_TYPE" displayName="ITEM_VISIBILITY_TYPE" ref="A112:F114" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A112:F114" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="ITEM_VISIBILITY_TYPE" displayName="ITEM_VISIBILITY_TYPE" ref="A114:F116" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A114:F116" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="323"/>
     <tableColumn id="2" name="Type" dataDxfId="324"/>
@@ -8847,8 +8859,8 @@
 </file>
 
 <file path=xl/tables/table60.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="ItemData" displayName="ItemData" ref="A119:F123" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A119:F123" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="ItemData" displayName="ItemData" ref="A121:F125" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A121:F125" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="329"/>
     <tableColumn id="2" name="Type" dataDxfId="330"/>
@@ -8862,8 +8874,8 @@
 </file>
 
 <file path=xl/tables/table61.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="ItemList" displayName="ItemList" ref="A134:F135" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A134:F135" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="ItemList" displayName="ItemList" ref="A136:F137" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A136:F137" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="335"/>
     <tableColumn id="2" name="Type" dataDxfId="336"/>
@@ -8877,8 +8889,8 @@
 </file>
 
 <file path=xl/tables/table62.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="ItemSet" displayName="ItemSet" ref="A128:F129" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A128:F129" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="ItemSet" displayName="ItemSet" ref="A130:F131" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A130:F131" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="341"/>
     <tableColumn id="2" name="Type" dataDxfId="342"/>
@@ -8892,8 +8904,8 @@
 </file>
 
 <file path=xl/tables/table63.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="EQUIP_RESULT_TYPE" displayName="EQUIP_RESULT_TYPE" ref="A138:F141" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A138:F141" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="EQUIP_RESULT_TYPE" displayName="EQUIP_RESULT_TYPE" ref="A140:F143" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A140:F143" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Type"/>
@@ -8907,8 +8919,8 @@
 </file>
 
 <file path=xl/tables/table64.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="NUMBER_FORMAT" displayName="NUMBER_FORMAT" ref="A145:F149" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A145:F149" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="NUMBER_FORMAT" displayName="NUMBER_FORMAT" ref="A147:F151" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A147:F151" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="347"/>
     <tableColumn id="2" name="Type" dataDxfId="348"/>
@@ -8922,8 +8934,8 @@
 </file>
 
 <file path=xl/tables/table65.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="ItemResultType" displayName="ItemResultType" ref="A154:F163" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A154:F163" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="ItemResultType" displayName="ItemResultType" ref="A156:F165" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A156:F165" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Type"/>
@@ -16329,10 +16341,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:G165"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -17933,27 +17945,43 @@
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="2"/>
+      <c r="A109" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D109" s="2">
+        <v>14</v>
+      </c>
       <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D110" s="2">
+        <v>15</v>
+      </c>
       <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
+      <c r="F110" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="2"/>
@@ -17962,166 +17990,150 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D113" s="2">
-        <v>0</v>
-      </c>
+      <c r="A113" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="2"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F113" s="1"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
-        <v>518</v>
+        <v>1</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="D114" s="1">
+      <c r="C115" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D116" s="1">
         <v>1</v>
       </c>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D120" s="2">
-        <v>1</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="1"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
-        <v>179</v>
+        <v>1</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D121" s="2">
-        <v>2</v>
-      </c>
-      <c r="E121" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="F121" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
-        <v>398</v>
+        <v>524</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>182</v>
+        <v>525</v>
       </c>
       <c r="D122" s="2">
-        <v>3</v>
-      </c>
-      <c r="E122" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="F122" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>523</v>
+        <v>149</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D123" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
@@ -18129,280 +18141,280 @@
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="1"/>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C128" s="1" t="s">
+      <c r="A124" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D124" s="2">
         <v>3</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E128" s="1" t="s">
+      <c r="E124" s="1"/>
+      <c r="F124" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="B125" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D125" s="2">
         <v>4</v>
       </c>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="1"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1" t="s">
-        <v>526</v>
+        <v>44</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D129" s="2">
+        <v>529</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="1"/>
+      <c r="B130" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D131" s="2">
+        <v>1</v>
+      </c>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="1"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1" t="s">
-        <v>530</v>
+        <v>42</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D137" s="2">
         <v>1</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+      <c r="E137" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D139" s="2">
-        <v>0</v>
-      </c>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1" t="s">
-        <v>533</v>
+        <v>1</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="D140" s="2">
-        <v>1</v>
-      </c>
-      <c r="E140" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="F140" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>536</v>
+        <v>410</v>
       </c>
       <c r="D141" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="1" t="s">
+    <row r="142" spans="1:6">
+      <c r="A142" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D142" s="2">
         <v>1</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="E142" s="1"/>
+      <c r="F142" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D143" s="2">
         <v>2</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>4</v>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D146" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="2"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F146" s="1"/>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
-        <v>538</v>
+        <v>1</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D147" s="2">
-        <v>1</v>
-      </c>
-      <c r="E147" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="F147" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D148" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1" t="s">
@@ -18420,91 +18432,91 @@
         <v>543</v>
       </c>
       <c r="D149" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B154" s="1" t="s">
+    <row r="150" spans="1:6">
+      <c r="A150" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D150" s="2">
         <v>2</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="E150" s="1"/>
+      <c r="F150" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D151" s="2">
         <v>3</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>4</v>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D155" s="2">
-        <v>0</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="2"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F155" s="1"/>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1" t="s">
-        <v>545</v>
+        <v>1</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="D156" s="2">
-        <v>1</v>
-      </c>
-      <c r="E156" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="F156" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>548</v>
+        <v>410</v>
       </c>
       <c r="D157" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1" t="s">
@@ -18522,7 +18534,7 @@
         <v>550</v>
       </c>
       <c r="D158" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1" t="s">
@@ -18536,12 +18548,13 @@
       <c r="B159" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="1" t="s">
         <v>552</v>
       </c>
       <c r="D159" s="2">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E159" s="1"/>
       <c r="F159" s="1" t="s">
         <v>13</v>
       </c>
@@ -18553,12 +18566,13 @@
       <c r="B160" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="1" t="s">
         <v>554</v>
       </c>
       <c r="D160" s="2">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E160" s="1"/>
       <c r="F160" s="1" t="s">
         <v>13</v>
       </c>
@@ -18574,7 +18588,7 @@
         <v>556</v>
       </c>
       <c r="D161" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>13</v>
@@ -18591,7 +18605,7 @@
         <v>558</v>
       </c>
       <c r="D162" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>13</v>
@@ -18608,29 +18622,63 @@
         <v>560</v>
       </c>
       <c r="D163" s="2">
+        <v>6</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C164" t="s">
+        <v>562</v>
+      </c>
+      <c r="D164" s="2">
+        <v>7</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C165" t="s">
+        <v>564</v>
+      </c>
+      <c r="D165" s="2">
         <v>8</v>
       </c>
-      <c r="F163" s="1" t="s">
+      <c r="F165" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D129">
+  <conditionalFormatting sqref="D131">
     <cfRule type="duplicateValues" dxfId="15" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D135">
+  <conditionalFormatting sqref="D137">
     <cfRule type="duplicateValues" dxfId="15" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D139">
+  <conditionalFormatting sqref="D141">
     <cfRule type="duplicateValues" dxfId="15" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D140">
+  <conditionalFormatting sqref="D142">
     <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D141">
+  <conditionalFormatting sqref="D143">
     <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D120:D123">
+  <conditionalFormatting sqref="D122:D125">
     <cfRule type="duplicateValues" dxfId="15" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Entities/OpenNGS/OpenNGS.Item.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Item.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="561">
   <si>
     <t>Package</t>
   </si>
@@ -1633,18 +1633,6 @@
   </si>
   <si>
     <t>遗物</t>
-  </si>
-  <si>
-    <t>ITEM_KIND_CHIP_ATTRIBUTE</t>
-  </si>
-  <si>
-    <t>属性芯片</t>
-  </si>
-  <si>
-    <t>ITEM_KIND_CHIP_SKILL</t>
-  </si>
-  <si>
-    <t>技能芯片</t>
   </si>
   <si>
     <t>ITEM_INVISIBLE</t>
@@ -8799,8 +8787,8 @@
 </file>
 
 <file path=xl/tables/table57.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="ITEM_KIND" displayName="ITEM_KIND" ref="A94:F110" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A94:F110" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="ITEM_KIND" displayName="ITEM_KIND" ref="A94:F108" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A94:F108" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="311"/>
     <tableColumn id="2" name="Type" dataDxfId="312"/>
@@ -8829,8 +8817,8 @@
 </file>
 
 <file path=xl/tables/table59.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="ITEM_VISIBILITY_TYPE" displayName="ITEM_VISIBILITY_TYPE" ref="A114:F116" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A114:F116" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="ITEM_VISIBILITY_TYPE" displayName="ITEM_VISIBILITY_TYPE" ref="A112:F114" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A112:F114" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="323"/>
     <tableColumn id="2" name="Type" dataDxfId="324"/>
@@ -8859,8 +8847,8 @@
 </file>
 
 <file path=xl/tables/table60.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="ItemData" displayName="ItemData" ref="A121:F125" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A121:F125" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="ItemData" displayName="ItemData" ref="A119:F123" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A119:F123" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="329"/>
     <tableColumn id="2" name="Type" dataDxfId="330"/>
@@ -8874,8 +8862,8 @@
 </file>
 
 <file path=xl/tables/table61.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="ItemList" displayName="ItemList" ref="A136:F137" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A136:F137" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="ItemList" displayName="ItemList" ref="A134:F135" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A134:F135" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="335"/>
     <tableColumn id="2" name="Type" dataDxfId="336"/>
@@ -8889,8 +8877,8 @@
 </file>
 
 <file path=xl/tables/table62.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="ItemSet" displayName="ItemSet" ref="A130:F131" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A130:F131" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="ItemSet" displayName="ItemSet" ref="A128:F129" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A128:F129" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="341"/>
     <tableColumn id="2" name="Type" dataDxfId="342"/>
@@ -8904,8 +8892,8 @@
 </file>
 
 <file path=xl/tables/table63.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="EQUIP_RESULT_TYPE" displayName="EQUIP_RESULT_TYPE" ref="A140:F143" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A140:F143" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="EQUIP_RESULT_TYPE" displayName="EQUIP_RESULT_TYPE" ref="A138:F141" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A138:F141" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Type"/>
@@ -8919,8 +8907,8 @@
 </file>
 
 <file path=xl/tables/table64.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="NUMBER_FORMAT" displayName="NUMBER_FORMAT" ref="A147:F151" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A147:F151" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="NUMBER_FORMAT" displayName="NUMBER_FORMAT" ref="A145:F149" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A145:F149" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="347"/>
     <tableColumn id="2" name="Type" dataDxfId="348"/>
@@ -8934,8 +8922,8 @@
 </file>
 
 <file path=xl/tables/table65.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="ItemResultType" displayName="ItemResultType" ref="A156:F165" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A156:F165" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="ItemResultType" displayName="ItemResultType" ref="A154:F163" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A154:F163" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Type"/>
@@ -16341,10 +16329,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G165"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -17945,43 +17933,27 @@
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D109" s="2">
-        <v>14</v>
-      </c>
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="2"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F109" s="1"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="D110" s="2">
-        <v>15</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="2"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F110" s="1"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="2"/>
@@ -17990,150 +17962,166 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="2"/>
+      <c r="A113" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0</v>
+      </c>
       <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
+      <c r="F113" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D114" s="1">
         <v>1</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="E114" s="1"/>
+      <c r="F114" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F119" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D115" s="2">
-        <v>0</v>
-      </c>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="D116" s="1">
-        <v>1</v>
-      </c>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="1"/>
+        <v>520</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D120" s="2">
+        <v>1</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D121" s="2">
         <v>2</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
-        <v>524</v>
+        <v>398</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>525</v>
+        <v>182</v>
       </c>
       <c r="D122" s="2">
-        <v>1</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>149</v>
+        <v>523</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D123" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
@@ -18141,280 +18129,280 @@
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D124" s="2">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="1" t="s">
+      <c r="D128" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D125" s="2">
+      <c r="F128" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="1"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1" t="s">
-        <v>44</v>
+        <v>526</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D129" s="2">
+        <v>1</v>
+      </c>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1" t="s">
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D131" s="2">
-        <v>1</v>
-      </c>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="1"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1" t="s">
-        <v>42</v>
+        <v>530</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D135" s="2">
         <v>1</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="E135" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D138" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F138" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D137" s="2">
-        <v>1</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
-        <v>132</v>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D139" s="2">
+        <v>0</v>
+      </c>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D140" s="2">
         <v>1</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="E140" s="1"/>
       <c r="F140" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>410</v>
+        <v>536</v>
       </c>
       <c r="D141" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D142" s="2">
+    <row r="144" spans="1:6">
+      <c r="A144" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D143" s="2">
+      <c r="B145" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1" t="s">
-        <v>13</v>
+      <c r="C145" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0</v>
+      </c>
       <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
+      <c r="F146" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D147" s="2">
         <v>1</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="E147" s="1"/>
       <c r="F147" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>410</v>
+        <v>541</v>
       </c>
       <c r="D148" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1" t="s">
@@ -18432,91 +18420,91 @@
         <v>543</v>
       </c>
       <c r="D149" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D150" s="2">
+    <row r="153" spans="1:6">
+      <c r="A153" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D151" s="2">
+      <c r="C154" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1" t="s">
-        <v>13</v>
+      <c r="D154" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="2"/>
+        <v>544</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D155" s="2">
+        <v>0</v>
+      </c>
       <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
+      <c r="F155" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D156" s="2">
         <v>1</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="E156" s="1"/>
       <c r="F156" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>410</v>
+        <v>548</v>
       </c>
       <c r="D157" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1" t="s">
@@ -18534,7 +18522,7 @@
         <v>550</v>
       </c>
       <c r="D158" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1" t="s">
@@ -18548,13 +18536,12 @@
       <c r="B159" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" t="s">
         <v>552</v>
       </c>
       <c r="D159" s="2">
-        <v>2</v>
-      </c>
-      <c r="E159" s="1"/>
+        <v>4</v>
+      </c>
       <c r="F159" s="1" t="s">
         <v>13</v>
       </c>
@@ -18566,13 +18553,12 @@
       <c r="B160" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" t="s">
         <v>554</v>
       </c>
       <c r="D160" s="2">
-        <v>3</v>
-      </c>
-      <c r="E160" s="1"/>
+        <v>5</v>
+      </c>
       <c r="F160" s="1" t="s">
         <v>13</v>
       </c>
@@ -18588,7 +18574,7 @@
         <v>556</v>
       </c>
       <c r="D161" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>13</v>
@@ -18605,7 +18591,7 @@
         <v>558</v>
       </c>
       <c r="D162" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>13</v>
@@ -18622,63 +18608,29 @@
         <v>560</v>
       </c>
       <c r="D163" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C164" t="s">
-        <v>562</v>
-      </c>
-      <c r="D164" s="2">
-        <v>7</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C165" t="s">
-        <v>564</v>
-      </c>
-      <c r="D165" s="2">
-        <v>8</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="D131">
+  <conditionalFormatting sqref="D129">
     <cfRule type="duplicateValues" dxfId="15" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D137">
+  <conditionalFormatting sqref="D135">
     <cfRule type="duplicateValues" dxfId="15" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D141">
+  <conditionalFormatting sqref="D139">
     <cfRule type="duplicateValues" dxfId="15" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D142">
+  <conditionalFormatting sqref="D140">
     <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D143">
+  <conditionalFormatting sqref="D141">
     <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D122:D125">
+  <conditionalFormatting sqref="D120:D123">
     <cfRule type="duplicateValues" dxfId="15" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
